--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12450"/>
+    <workbookView windowWidth="27180" windowHeight="14655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="387">
   <si>
     <t>训练统计</t>
   </si>
@@ -825,6 +825,18 @@
   </si>
   <si>
     <t>稳住；在卧推前一天要多补充碳水，当天早上也要多补充碳水；</t>
+  </si>
+  <si>
+    <t>2020.11.24</t>
+  </si>
+  <si>
+    <t>2020.11.28</t>
+  </si>
+  <si>
+    <t>这次状态受到影响，组数记得不是很清楚了，双杠和器械夹胸五组是有的；</t>
+  </si>
+  <si>
+    <t>引体向上每组次数做的不稳定，还需继续练；但是老师说，不太推荐在训练结束后再练引体向上，看来得到之后时间充足了，在训练了；</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1191,10 +1203,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1221,53 +1233,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1282,6 +1250,29 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1289,8 +1280,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1299,6 +1313,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1313,7 +1334,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1321,30 +1342,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1357,11 +1355,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1374,13 +1386,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1392,13 +1488,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,151 +1560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,36 +1577,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1618,6 +1600,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1651,17 +1657,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1670,148 +1682,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2158,8 +2170,8 @@
   <sheetPr/>
   <dimension ref="A1:L618"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="I172" workbookViewId="0">
+      <selection activeCell="I186" sqref="I186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -6018,70 +6030,196 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" customHeight="true" spans="1:1">
+    <row r="178" customHeight="true" spans="1:8">
       <c r="A178">
         <f t="shared" ref="A178:A187" si="17">ROW()-3</f>
         <v>175</v>
       </c>
-    </row>
-    <row r="179" customHeight="true" spans="1:1">
+      <c r="C178" t="s">
+        <v>270</v>
+      </c>
+      <c r="D178" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178">
+        <v>50</v>
+      </c>
+      <c r="F178">
+        <v>666666</v>
+      </c>
+      <c r="G178">
+        <v>6</v>
+      </c>
+      <c r="H178" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="179" customHeight="true" spans="1:8">
       <c r="A179">
         <f t="shared" si="17"/>
         <v>176</v>
       </c>
-    </row>
-    <row r="180" customHeight="true" spans="1:1">
+      <c r="D179" t="s">
+        <v>160</v>
+      </c>
+      <c r="E179">
+        <v>65</v>
+      </c>
+      <c r="F179">
+        <v>566</v>
+      </c>
+      <c r="G179">
+        <v>3</v>
+      </c>
+      <c r="H179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" customHeight="true" spans="1:8">
       <c r="A180">
         <f t="shared" si="17"/>
         <v>177</v>
       </c>
-    </row>
-    <row r="181" customHeight="true" spans="1:1">
+      <c r="D180" t="s">
+        <v>17</v>
+      </c>
+      <c r="E180">
+        <v>60</v>
+      </c>
+      <c r="F180">
+        <v>224678</v>
+      </c>
+      <c r="G180">
+        <v>6</v>
+      </c>
+      <c r="H180" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="181" customHeight="true" spans="1:7">
       <c r="A181">
         <f t="shared" si="17"/>
         <v>178</v>
       </c>
-    </row>
-    <row r="182" customHeight="true" spans="1:1">
+      <c r="D181" t="s">
+        <v>18</v>
+      </c>
+      <c r="G181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" customHeight="true" spans="1:7">
       <c r="A182">
         <f t="shared" si="17"/>
         <v>179</v>
       </c>
-    </row>
-    <row r="183" customHeight="true" spans="1:1">
+      <c r="D182" t="s">
+        <v>250</v>
+      </c>
+      <c r="G182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" customHeight="true" spans="1:8">
       <c r="A183">
         <f t="shared" si="17"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="184" customHeight="true" spans="1:1">
+      <c r="C183" t="s">
+        <v>271</v>
+      </c>
+      <c r="D183" t="s">
+        <v>12</v>
+      </c>
+      <c r="E183">
+        <v>60</v>
+      </c>
+      <c r="F183">
+        <v>222222</v>
+      </c>
+      <c r="G183">
+        <v>6</v>
+      </c>
+      <c r="H183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" customHeight="true" spans="1:7">
       <c r="A184">
         <f t="shared" si="17"/>
         <v>181</v>
       </c>
-    </row>
-    <row r="185" customHeight="true" spans="1:1">
+      <c r="D184" t="s">
+        <v>160</v>
+      </c>
+      <c r="E184">
+        <v>70</v>
+      </c>
+      <c r="F184">
+        <v>456</v>
+      </c>
+      <c r="G184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" customHeight="true" spans="1:7">
       <c r="A185">
         <f t="shared" si="17"/>
         <v>182</v>
       </c>
-    </row>
-    <row r="186" customHeight="true" spans="1:1">
+      <c r="D185" t="s">
+        <v>17</v>
+      </c>
+      <c r="E185">
+        <v>60</v>
+      </c>
+      <c r="F185">
+        <v>224688</v>
+      </c>
+      <c r="G185">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" customHeight="true" spans="1:9">
       <c r="A186">
         <f t="shared" si="17"/>
         <v>183</v>
       </c>
-    </row>
-    <row r="187" customHeight="true" spans="1:1">
+      <c r="D186" t="s">
+        <v>18</v>
+      </c>
+      <c r="G186">
+        <v>5</v>
+      </c>
+      <c r="I186" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="187" customHeight="true" spans="1:7">
       <c r="A187">
         <f t="shared" si="17"/>
         <v>184</v>
       </c>
-    </row>
-    <row r="188" customHeight="true" spans="1:1">
+      <c r="D187" t="s">
+        <v>250</v>
+      </c>
+      <c r="G187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" customHeight="true" spans="1:9">
       <c r="A188">
         <f t="shared" ref="A188:A197" si="18">ROW()-3</f>
         <v>185</v>
+      </c>
+      <c r="D188" t="s">
+        <v>169</v>
+      </c>
+      <c r="G188">
+        <v>5</v>
+      </c>
+      <c r="I188" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="189" customHeight="true" spans="1:1">
@@ -8696,492 +8834,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="I4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H5" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F6" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H6" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="I6" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F8" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H8" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E9" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G9" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H9" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="I9" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E10" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F10" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G10" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H10" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E11" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F11" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H11" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F12" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G12" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H12" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F13" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H13" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G14" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H14" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E15" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F15" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H15" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E16" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F16" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G16" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H16" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E17" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F17" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H17" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E18" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F18" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H18" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I18" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E19" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F19" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H19" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F20" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F21" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G21" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H21" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E22" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F22" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H22" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E23" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F23" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G23" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H23" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E24" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F24" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H24" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E25" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F25" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H25" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E26" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F26" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G26" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H26" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E27" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F27" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G27" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H27" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F28" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H28" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E29" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F29" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H29" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E30" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F30" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H30" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E31" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F31" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H31" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E32" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F32" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H32" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E33" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F33" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G33" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27180" windowHeight="14655"/>
+    <workbookView windowWidth="27720" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="391">
   <si>
     <t>训练统计</t>
   </si>
@@ -837,6 +837,18 @@
   </si>
   <si>
     <t>引体向上每组次数做的不稳定，还需继续练；但是老师说，不太推荐在训练结束后再练引体向上，看来得到之后时间充足了，在训练了；</t>
+  </si>
+  <si>
+    <t>2020.12.1</t>
+  </si>
+  <si>
+    <t>轨迹不是很稳；</t>
+  </si>
+  <si>
+    <t>脚掌踩稳了</t>
+  </si>
+  <si>
+    <t>4~8</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1203,10 +1215,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1241,9 +1253,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1257,16 +1275,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1282,29 +1345,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1327,51 +1383,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1386,13 +1398,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,85 +1482,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,13 +1518,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1518,55 +1542,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,16 +1602,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1613,17 +1636,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1643,26 +1660,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1677,147 +1674,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2170,8 +2182,8 @@
   <sheetPr/>
   <dimension ref="A1:L618"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="I172" workbookViewId="0">
-      <selection activeCell="I186" sqref="I186"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -6222,40 +6234,112 @@
         <v>273</v>
       </c>
     </row>
-    <row r="189" customHeight="true" spans="1:1">
+    <row r="189" customHeight="true" spans="1:9">
       <c r="A189">
         <f t="shared" si="18"/>
         <v>186</v>
       </c>
-    </row>
-    <row r="190" customHeight="true" spans="1:1">
+      <c r="C189" t="s">
+        <v>274</v>
+      </c>
+      <c r="D189" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189">
+        <v>60</v>
+      </c>
+      <c r="F189">
+        <v>222224</v>
+      </c>
+      <c r="G189">
+        <v>6</v>
+      </c>
+      <c r="H189" t="s">
+        <v>248</v>
+      </c>
+      <c r="I189" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="190" customHeight="true" spans="1:9">
       <c r="A190">
         <f t="shared" si="18"/>
         <v>187</v>
       </c>
-    </row>
-    <row r="191" customHeight="true" spans="1:1">
+      <c r="D190" t="s">
+        <v>160</v>
+      </c>
+      <c r="E190">
+        <v>70</v>
+      </c>
+      <c r="F190">
+        <v>564</v>
+      </c>
+      <c r="G190">
+        <v>3</v>
+      </c>
+      <c r="H190">
+        <v>3</v>
+      </c>
+      <c r="I190" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="191" customHeight="true" spans="1:8">
       <c r="A191">
         <f t="shared" si="18"/>
         <v>188</v>
       </c>
-    </row>
-    <row r="192" customHeight="true" spans="1:1">
+      <c r="D191" t="s">
+        <v>17</v>
+      </c>
+      <c r="E191">
+        <v>60</v>
+      </c>
+      <c r="F191">
+        <v>224787</v>
+      </c>
+      <c r="G191">
+        <v>6</v>
+      </c>
+      <c r="H191" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="192" customHeight="true" spans="1:7">
       <c r="A192">
         <f t="shared" si="18"/>
         <v>189</v>
       </c>
-    </row>
-    <row r="193" customHeight="true" spans="1:1">
+      <c r="D192" t="s">
+        <v>18</v>
+      </c>
+      <c r="G192">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" customHeight="true" spans="1:7">
       <c r="A193">
         <f t="shared" si="18"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="194" customHeight="true" spans="1:1">
+      <c r="D193" t="s">
+        <v>250</v>
+      </c>
+      <c r="G193">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" customHeight="true" spans="1:7">
       <c r="A194">
         <f t="shared" si="18"/>
         <v>191</v>
+      </c>
+      <c r="D194" t="s">
+        <v>169</v>
+      </c>
+      <c r="G194">
+        <v>2</v>
       </c>
     </row>
     <row r="195" customHeight="true" spans="1:1">
@@ -8834,492 +8918,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F3" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H3" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F6" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="I6" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E8" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G8" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F9" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G9" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H9" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="I9" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F10" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G10" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H10" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E11" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F11" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H11" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E12" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F12" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G12" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H12" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F13" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H13" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F14" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G14" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H14" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E15" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F15" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H15" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E16" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F16" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G16" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H16" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E17" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F17" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H17" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E18" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F18" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H18" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="I18" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E19" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F19" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G19" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H19" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F20" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H20" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F21" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G21" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H21" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E22" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F22" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H22" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E23" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F23" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G23" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H23" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E24" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F24" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H24" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E25" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F25" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H25" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E26" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F26" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G26" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H26" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E27" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F27" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G27" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H27" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F28" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H28" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E29" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F29" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H29" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E30" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F30" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H30" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E31" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F31" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H31" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E32" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F32" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H32" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E33" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F33" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G33" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12450"/>
+    <workbookView windowHeight="17850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="398">
   <si>
     <t>训练统计</t>
   </si>
@@ -849,6 +849,27 @@
   </si>
   <si>
     <t>4~8</t>
+  </si>
+  <si>
+    <t>2020.12.5</t>
+  </si>
+  <si>
+    <t>我自己的问题，站距不是很稳定；抓杆扛杠不是很稳；</t>
+  </si>
+  <si>
+    <t>下落前要屈膝，就是屈膝要主动；重心保持在脚掌（脚掌中心）之上；</t>
+  </si>
+  <si>
+    <t>4~10</t>
+  </si>
+  <si>
+    <t>2020.12.8</t>
+  </si>
+  <si>
+    <t>呼吸的时候，用舌头顶住下面的牙齿，然后吐气；吐气声带振动的话，也会造成一种消耗</t>
+  </si>
+  <si>
+    <t>重心向前，脚掌踩实；</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1215,9 +1236,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1253,17 +1274,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1276,7 +1299,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1285,6 +1308,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1299,7 +1329,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1327,9 +1365,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1343,24 +1395,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1369,21 +1405,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1398,7 +1419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,7 +1443,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,13 +1509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,7 +1527,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,133 +1593,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1589,6 +1610,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1616,6 +1661,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1623,15 +1683,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1659,177 +1710,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2182,8 +2203,8 @@
   <sheetPr/>
   <dimension ref="A1:L618"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="G194" sqref="G194"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -6342,52 +6363,175 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" customHeight="true" spans="1:1">
+    <row r="195" customHeight="true" spans="1:9">
       <c r="A195">
         <f t="shared" si="18"/>
         <v>192</v>
       </c>
-    </row>
-    <row r="196" customHeight="true" spans="1:1">
+      <c r="C195" t="s">
+        <v>278</v>
+      </c>
+      <c r="D195" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195">
+        <v>60</v>
+      </c>
+      <c r="F195">
+        <v>222345</v>
+      </c>
+      <c r="G195">
+        <v>6</v>
+      </c>
+      <c r="H195" t="s">
+        <v>248</v>
+      </c>
+      <c r="I195" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="196" customHeight="true" spans="1:9">
       <c r="A196">
         <f t="shared" si="18"/>
         <v>193</v>
       </c>
-    </row>
-    <row r="197" customHeight="true" spans="1:1">
+      <c r="D196" t="s">
+        <v>160</v>
+      </c>
+      <c r="E196">
+        <v>70</v>
+      </c>
+      <c r="F196">
+        <v>455</v>
+      </c>
+      <c r="G196">
+        <v>3</v>
+      </c>
+      <c r="H196">
+        <v>4</v>
+      </c>
+      <c r="I196" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="197" customHeight="true" spans="1:8">
       <c r="A197">
         <f t="shared" si="18"/>
         <v>194</v>
       </c>
-    </row>
-    <row r="198" customHeight="true" spans="1:1">
+      <c r="D197" t="s">
+        <v>17</v>
+      </c>
+      <c r="E197">
+        <v>60</v>
+      </c>
+      <c r="F197">
+        <v>224779</v>
+      </c>
+      <c r="G197">
+        <v>6</v>
+      </c>
+      <c r="H197" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="198" customHeight="true" spans="1:7">
       <c r="A198">
         <f t="shared" ref="A198:A207" si="19">ROW()-3</f>
         <v>195</v>
       </c>
-    </row>
-    <row r="199" customHeight="true" spans="1:1">
+      <c r="D198" t="s">
+        <v>18</v>
+      </c>
+      <c r="G198">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" customHeight="true" spans="1:9">
       <c r="A199">
         <f t="shared" si="19"/>
         <v>196</v>
       </c>
-    </row>
-    <row r="200" customHeight="true" spans="1:1">
+      <c r="C199" t="s">
+        <v>282</v>
+      </c>
+      <c r="D199" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199">
+        <v>60</v>
+      </c>
+      <c r="F199">
+        <v>222456</v>
+      </c>
+      <c r="G199">
+        <v>6</v>
+      </c>
+      <c r="H199" t="s">
+        <v>248</v>
+      </c>
+      <c r="I199" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="200" customHeight="true" spans="1:9">
       <c r="A200">
         <f t="shared" si="19"/>
         <v>197</v>
       </c>
-    </row>
-    <row r="201" customHeight="true" spans="1:1">
+      <c r="D200" t="s">
+        <v>160</v>
+      </c>
+      <c r="E200">
+        <v>70</v>
+      </c>
+      <c r="F200">
+        <v>46</v>
+      </c>
+      <c r="G200">
+        <v>2</v>
+      </c>
+      <c r="H200">
+        <v>4</v>
+      </c>
+      <c r="I200" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="201" customHeight="true" spans="1:8">
       <c r="A201">
         <f t="shared" si="19"/>
         <v>198</v>
       </c>
-    </row>
-    <row r="202" customHeight="true" spans="1:1">
+      <c r="D201" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201">
+        <v>60</v>
+      </c>
+      <c r="F201">
+        <v>224787</v>
+      </c>
+      <c r="G201">
+        <v>6</v>
+      </c>
+      <c r="H201" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="202" customHeight="true" spans="1:7">
       <c r="A202">
         <f t="shared" si="19"/>
         <v>199</v>
+      </c>
+      <c r="D202" t="s">
+        <v>18</v>
+      </c>
+      <c r="F202">
+        <v>8</v>
+      </c>
+      <c r="G202">
+        <v>6</v>
       </c>
     </row>
     <row r="203" customHeight="true" spans="1:1">
@@ -8918,492 +9062,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E3" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F3" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="H3" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F4" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="H4" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="I4" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F5" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="H5" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="F6" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="G6" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="H6" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="I6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="G7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E8" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="G8" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="H8" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E9" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F9" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G9" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="H9" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="I9" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E10" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F10" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="G10" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H10" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E11" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F11" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H11" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E12" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F12" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="G12" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="H12" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F13" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="H13" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="F14" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="G14" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H14" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E15" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H15" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E16" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F16" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="G16" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H16" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E17" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F17" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H17" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="E18" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F18" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="H18" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="I18" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E19" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F19" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="G19" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="H19" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="F20" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="H20" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F21" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="G21" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="H21" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E22" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F22" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="H22" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E23" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F23" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="G23" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H23" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E24" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F24" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="H24" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="E25" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F25" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="H25" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E26" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F26" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="G26" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="H26" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E27" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F27" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="G27" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="H27" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="F28" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H28" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="E29" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F29" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="H29" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E30" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F30" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H30" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="E31" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F31" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="H31" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E32" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F32" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="H32" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="E33" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F33" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="G33" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17850"/>
+    <workbookView windowWidth="27720" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="399">
   <si>
     <t>训练统计</t>
   </si>
@@ -870,6 +870,9 @@
   </si>
   <si>
     <t>重心向前，脚掌踩实；</t>
+  </si>
+  <si>
+    <t>2020.12.12</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1236,10 +1239,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1274,9 +1277,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1291,7 +1360,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1299,22 +1368,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1328,38 +1398,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1367,44 +1408,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1419,7 +1422,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,13 +1452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,7 +1470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,13 +1482,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,19 +1506,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1503,43 +1554,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,7 +1584,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,37 +1602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,6 +1613,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1632,7 +1650,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1641,22 +1659,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1687,15 +1690,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1710,147 +1704,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2203,8 +2206,8 @@
   <sheetPr/>
   <dimension ref="A1:L618"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -6534,28 +6537,85 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" customHeight="true" spans="1:1">
+    <row r="203" customHeight="true" spans="1:8">
       <c r="A203">
         <f t="shared" si="19"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="204" customHeight="true" spans="1:1">
+      <c r="C203" t="s">
+        <v>285</v>
+      </c>
+      <c r="D203" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203">
+        <v>60</v>
+      </c>
+      <c r="F203">
+        <v>222466</v>
+      </c>
+      <c r="G203">
+        <v>6</v>
+      </c>
+      <c r="H203" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="204" customHeight="true" spans="1:8">
       <c r="A204">
         <f t="shared" si="19"/>
         <v>201</v>
       </c>
-    </row>
-    <row r="205" customHeight="true" spans="1:1">
+      <c r="D204" t="s">
+        <v>160</v>
+      </c>
+      <c r="E204">
+        <v>70</v>
+      </c>
+      <c r="F204">
+        <v>555</v>
+      </c>
+      <c r="G204">
+        <v>3</v>
+      </c>
+      <c r="H204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" customHeight="true" spans="1:8">
       <c r="A205">
         <f t="shared" si="19"/>
         <v>202</v>
       </c>
-    </row>
-    <row r="206" customHeight="true" spans="1:1">
+      <c r="D205" t="s">
+        <v>17</v>
+      </c>
+      <c r="E205">
+        <v>60</v>
+      </c>
+      <c r="F205">
+        <v>234789</v>
+      </c>
+      <c r="G205">
+        <v>6</v>
+      </c>
+      <c r="H205" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="206" customHeight="true" spans="1:7">
       <c r="A206">
         <f t="shared" si="19"/>
         <v>203</v>
+      </c>
+      <c r="D206" t="s">
+        <v>18</v>
+      </c>
+      <c r="F206">
+        <v>8</v>
+      </c>
+      <c r="G206">
+        <v>6</v>
       </c>
     </row>
     <row r="207" customHeight="true" spans="1:1">
@@ -9062,492 +9122,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" t="s">
         <v>287</v>
       </c>
-      <c r="E3" t="s">
-        <v>286</v>
-      </c>
       <c r="F3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G12" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F14" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G14" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E15" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E16" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F16" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H16" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F17" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H17" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F18" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H18" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I18" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G19" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H19" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H20" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G21" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H21" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F22" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H22" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E23" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F23" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G23" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H23" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H24" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E25" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F25" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H25" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F26" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G26" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H26" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E27" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F27" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G27" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H27" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F28" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H28" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E29" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F29" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H29" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E30" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F30" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H30" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E31" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F31" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H31" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E32" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F32" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H32" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F33" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G33" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12450"/>
+    <workbookView windowHeight="17850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="404">
   <si>
     <t>训练统计</t>
   </si>
@@ -873,6 +873,21 @@
   </si>
   <si>
     <t>2020.12.12</t>
+  </si>
+  <si>
+    <t>2020.12.15</t>
+  </si>
+  <si>
+    <t>60 70</t>
+  </si>
+  <si>
+    <t>6 4</t>
+  </si>
+  <si>
+    <t>重心还是太靠后；</t>
+  </si>
+  <si>
+    <t>8 9 10 8 9 10</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1239,10 +1254,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1277,18 +1292,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1299,8 +1330,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1314,51 +1374,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1367,34 +1382,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1412,6 +1404,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1422,7 +1437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1434,7 +1455,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,7 +1515,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,25 +1569,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1488,73 +1605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1566,43 +1617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1627,6 +1642,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1660,21 +1690,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1718,142 +1733,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2206,8 +2221,8 @@
   <sheetPr/>
   <dimension ref="A1:L618"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="E207" sqref="E207"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -6618,28 +6633,91 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" customHeight="true" spans="1:1">
+    <row r="207" customHeight="true" spans="1:8">
       <c r="A207">
         <f t="shared" si="19"/>
         <v>204</v>
       </c>
-    </row>
-    <row r="208" customHeight="true" spans="1:1">
+      <c r="C207" t="s">
+        <v>286</v>
+      </c>
+      <c r="D207" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207">
+        <v>60</v>
+      </c>
+      <c r="F207">
+        <v>223466</v>
+      </c>
+      <c r="G207">
+        <v>6</v>
+      </c>
+      <c r="H207" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="208" customHeight="true" spans="1:9">
       <c r="A208">
         <f t="shared" ref="A208:A217" si="20">ROW()-3</f>
         <v>205</v>
       </c>
-    </row>
-    <row r="209" customHeight="true" spans="1:1">
+      <c r="D208" t="s">
+        <v>160</v>
+      </c>
+      <c r="E208" t="s">
+        <v>287</v>
+      </c>
+      <c r="F208" t="s">
+        <v>288</v>
+      </c>
+      <c r="G208">
+        <v>2</v>
+      </c>
+      <c r="H208">
+        <v>4</v>
+      </c>
+      <c r="I208" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="209" customHeight="true" spans="1:8">
       <c r="A209">
         <f t="shared" si="20"/>
         <v>206</v>
       </c>
-    </row>
-    <row r="210" customHeight="true" spans="1:1">
+      <c r="D209" t="s">
+        <v>17</v>
+      </c>
+      <c r="E209">
+        <v>60</v>
+      </c>
+      <c r="F209">
+        <v>225888</v>
+      </c>
+      <c r="G209">
+        <v>6</v>
+      </c>
+      <c r="H209" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="210" customHeight="true" spans="1:8">
       <c r="A210">
         <f t="shared" si="20"/>
         <v>207</v>
+      </c>
+      <c r="D210" t="s">
+        <v>18</v>
+      </c>
+      <c r="F210" t="s">
+        <v>290</v>
+      </c>
+      <c r="G210">
+        <v>6</v>
+      </c>
+      <c r="H210">
+        <v>2</v>
       </c>
     </row>
     <row r="211" customHeight="true" spans="1:1">
@@ -9122,492 +9200,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F4" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H4" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="I4" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E5" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F5" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H5" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F6" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G6" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I6" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E8" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F8" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G8" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H8" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E9" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F9" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G9" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H9" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I9" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E10" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F10" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G10" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H10" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E11" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F11" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H11" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E12" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F12" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G12" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H12" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F13" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H13" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F14" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G14" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="H14" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E15" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F15" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H15" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
+        <v>342</v>
+      </c>
+      <c r="E16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F16" t="s">
+        <v>343</v>
+      </c>
+      <c r="G16" t="s">
         <v>337</v>
       </c>
-      <c r="E16" t="s">
-        <v>287</v>
-      </c>
-      <c r="F16" t="s">
-        <v>338</v>
-      </c>
-      <c r="G16" t="s">
-        <v>332</v>
-      </c>
       <c r="H16" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E17" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F17" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H17" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="E18" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F18" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H18" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="I18" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E19" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F19" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G19" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H19" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F20" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H20" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
+        <v>360</v>
+      </c>
+      <c r="F21" t="s">
+        <v>361</v>
+      </c>
+      <c r="G21" t="s">
         <v>355</v>
       </c>
-      <c r="F21" t="s">
-        <v>356</v>
-      </c>
-      <c r="G21" t="s">
-        <v>350</v>
-      </c>
       <c r="H21" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E22" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F22" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="H22" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="E23" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F23" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G23" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H23" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E24" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F24" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="H24" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E25" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F25" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="H25" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="E26" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F26" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="G26" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="H26" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E27" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F27" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="G27" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="H27" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F28" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H28" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E29" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F29" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="H29" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E30" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F30" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H30" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="E31" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F31" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="H31" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="E32" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F32" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="H32" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="E33" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F33" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="G33" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="407">
   <si>
     <t>训练统计</t>
   </si>
@@ -888,6 +888,15 @@
   </si>
   <si>
     <t>8 9 10 8 9 10</t>
+  </si>
+  <si>
+    <t>2020.12.19</t>
+  </si>
+  <si>
+    <t>3 ~4</t>
+  </si>
+  <si>
+    <t>脚掌要踩住了</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1254,10 +1263,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1284,81 +1293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1375,7 +1309,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1384,7 +1334,51 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1398,18 +1392,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1420,9 +1407,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1437,25 +1446,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1473,7 +1488,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,19 +1584,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1509,37 +1608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1551,67 +1620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1628,36 +1637,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1694,13 +1673,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1728,153 +1726,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2221,8 +2230,8 @@
   <sheetPr/>
   <dimension ref="A1:L618"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="D212" sqref="D212"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="F218" sqref="F218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -6720,34 +6729,100 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" customHeight="true" spans="1:1">
+    <row r="211" customHeight="true" spans="1:8">
       <c r="A211">
         <f t="shared" si="20"/>
         <v>208</v>
       </c>
-    </row>
-    <row r="212" customHeight="true" spans="1:1">
+      <c r="C211" t="s">
+        <v>291</v>
+      </c>
+      <c r="D211" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211">
+        <v>60</v>
+      </c>
+      <c r="F211">
+        <v>224566</v>
+      </c>
+      <c r="G211">
+        <v>6</v>
+      </c>
+      <c r="H211" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="212" customHeight="true" spans="1:9">
       <c r="A212">
         <f t="shared" si="20"/>
         <v>209</v>
       </c>
-    </row>
-    <row r="213" customHeight="true" spans="1:1">
+      <c r="D212" t="s">
+        <v>160</v>
+      </c>
+      <c r="E212">
+        <v>65</v>
+      </c>
+      <c r="F212" t="s">
+        <v>233</v>
+      </c>
+      <c r="G212">
+        <v>2</v>
+      </c>
+      <c r="H212">
+        <v>4</v>
+      </c>
+      <c r="I212" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="213" customHeight="true" spans="1:8">
       <c r="A213">
         <f t="shared" si="20"/>
         <v>210</v>
       </c>
-    </row>
-    <row r="214" customHeight="true" spans="1:1">
+      <c r="D213" t="s">
+        <v>17</v>
+      </c>
+      <c r="E213">
+        <v>60</v>
+      </c>
+      <c r="F213">
+        <v>235889</v>
+      </c>
+      <c r="G213">
+        <v>6</v>
+      </c>
+      <c r="H213" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="214" customHeight="true" spans="1:7">
       <c r="A214">
         <f t="shared" si="20"/>
         <v>211</v>
       </c>
-    </row>
-    <row r="215" customHeight="true" spans="1:1">
+      <c r="D214" t="s">
+        <v>18</v>
+      </c>
+      <c r="F214">
+        <v>8</v>
+      </c>
+      <c r="G214">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" customHeight="true" spans="1:7">
       <c r="A215">
         <f t="shared" si="20"/>
         <v>212</v>
+      </c>
+      <c r="D215" t="s">
+        <v>250</v>
+      </c>
+      <c r="G215">
+        <v>4</v>
       </c>
     </row>
     <row r="216" customHeight="true" spans="1:1">
@@ -9200,492 +9275,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D4" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F4" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="I4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E5" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F5" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H5" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F6" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G6" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="I6" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F8" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G8" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F9" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H9" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="I9" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E10" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F10" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H10" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E11" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F11" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H11" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E12" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F12" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H12" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F13" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H13" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F14" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G14" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H14" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E15" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F15" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H15" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E16" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F16" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G16" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H16" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E17" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F17" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H17" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E18" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F18" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H18" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I18" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E19" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F19" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G19" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H19" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F20" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H20" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F21" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G21" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H21" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E22" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F22" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H22" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E23" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F23" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G23" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H23" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E24" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F24" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H24" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E25" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F25" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H25" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E26" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F26" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G26" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H26" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E27" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F27" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G27" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H27" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F28" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H28" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E29" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F29" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H29" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E30" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F30" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H30" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E31" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F31" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H31" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E32" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F32" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H32" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E33" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F33" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G33" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="410">
   <si>
     <t>训练统计</t>
   </si>
@@ -897,6 +897,15 @@
   </si>
   <si>
     <t>脚掌要踩住了</t>
+  </si>
+  <si>
+    <t>2020.12.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 60 70 75 </t>
+  </si>
+  <si>
+    <t>6 6 4 3</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1263,8 +1272,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -1293,6 +1302,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1301,8 +1347,84 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1323,119 +1445,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1446,7 +1455,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,37 +1593,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,103 +1617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1614,19 +1635,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1640,35 +1649,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1689,6 +1674,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1703,26 +1703,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1737,153 +1722,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2230,8 +2239,8 @@
   <sheetPr/>
   <dimension ref="A1:L618"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="F218" sqref="F218"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="H218" sqref="H218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -6825,22 +6834,67 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" customHeight="true" spans="1:1">
+    <row r="216" customHeight="true" spans="1:8">
       <c r="A216">
         <f t="shared" si="20"/>
         <v>213</v>
       </c>
-    </row>
-    <row r="217" customHeight="true" spans="1:1">
+      <c r="C216" t="s">
+        <v>294</v>
+      </c>
+      <c r="D216" t="s">
+        <v>12</v>
+      </c>
+      <c r="E216">
+        <v>60</v>
+      </c>
+      <c r="F216">
+        <v>224566</v>
+      </c>
+      <c r="G216">
+        <v>6</v>
+      </c>
+      <c r="H216" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="217" customHeight="true" spans="1:8">
       <c r="A217">
         <f t="shared" si="20"/>
         <v>214</v>
       </c>
-    </row>
-    <row r="218" customHeight="true" spans="1:1">
+      <c r="D217" t="s">
+        <v>17</v>
+      </c>
+      <c r="E217">
+        <v>60</v>
+      </c>
+      <c r="F217">
+        <v>246888</v>
+      </c>
+      <c r="G217">
+        <v>6</v>
+      </c>
+      <c r="H217" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="218" customHeight="true" spans="1:7">
       <c r="A218">
         <f t="shared" ref="A218:A227" si="21">ROW()-3</f>
         <v>215</v>
+      </c>
+      <c r="D218" t="s">
+        <v>160</v>
+      </c>
+      <c r="E218" t="s">
+        <v>295</v>
+      </c>
+      <c r="F218" t="s">
+        <v>296</v>
+      </c>
+      <c r="G218">
+        <v>4</v>
       </c>
     </row>
     <row r="219" customHeight="true" spans="1:1">
@@ -9275,492 +9329,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="I4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H5" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F6" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H6" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I6" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E8" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G8" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E10" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F10" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G10" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H10" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E11" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F11" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H11" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E12" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F12" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G12" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H12" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F13" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H13" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F14" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G14" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H14" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E15" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F15" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H15" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E16" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F16" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G16" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H16" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E17" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F17" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H17" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E18" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F18" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H18" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I18" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E19" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F19" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G19" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H19" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F20" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H20" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F21" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G21" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H21" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E22" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F22" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H22" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E23" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F23" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G23" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H23" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E24" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F24" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H24" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E25" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F25" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H25" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E26" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F26" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G26" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H26" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E27" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F27" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G27" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H27" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F28" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H28" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F29" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H29" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E30" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F30" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H30" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E31" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F31" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H31" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E32" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F32" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H32" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E33" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F33" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G33" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="415">
   <si>
     <t>训练统计</t>
   </si>
@@ -906,6 +906,21 @@
   </si>
   <si>
     <t>6 6 4 3</t>
+  </si>
+  <si>
+    <t>2020.12.29</t>
+  </si>
+  <si>
+    <t>深蹲重心的位置要以，每组做的时候，身体的稳定性，为基准；如果在一组训练的过程中，能够保持平稳，那么就说明重心也是稳定的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 75 </t>
+  </si>
+  <si>
+    <t>4 5</t>
+  </si>
+  <si>
+    <t>发力的时候，要利用下背的力量向上顶，同时向上推的时候，向两边开肘，这样就会形成一个向斜上方的力；不能只靠上胸和肩膀发力</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1272,10 +1287,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1311,9 +1326,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1326,7 +1356,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1334,43 +1364,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1384,8 +1377,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1408,21 +1441,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1430,17 +1454,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1455,19 +1470,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,13 +1494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1503,13 +1512,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1521,121 +1650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1652,8 +1667,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1673,45 +1742,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1726,23 +1756,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1751,142 +1766,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2239,8 +2254,8 @@
   <sheetPr/>
   <dimension ref="A1:L618"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="H218" sqref="H218"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F206" workbookViewId="0">
+      <selection activeCell="I221" sqref="I221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -6849,7 +6864,7 @@
         <v>60</v>
       </c>
       <c r="F216">
-        <v>224566</v>
+        <v>224666</v>
       </c>
       <c r="G216">
         <v>6</v>
@@ -6897,22 +6912,76 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" customHeight="true" spans="1:1">
+    <row r="219" customHeight="true" spans="1:9">
       <c r="A219">
         <f t="shared" si="21"/>
         <v>216</v>
       </c>
-    </row>
-    <row r="220" customHeight="true" spans="1:1">
+      <c r="C219" t="s">
+        <v>297</v>
+      </c>
+      <c r="D219" t="s">
+        <v>12</v>
+      </c>
+      <c r="E219">
+        <v>60</v>
+      </c>
+      <c r="F219">
+        <v>225666</v>
+      </c>
+      <c r="G219">
+        <v>6</v>
+      </c>
+      <c r="H219" t="s">
+        <v>244</v>
+      </c>
+      <c r="I219" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="220" customHeight="true" spans="1:8">
       <c r="A220">
         <f t="shared" si="21"/>
         <v>217</v>
       </c>
-    </row>
-    <row r="221" customHeight="true" spans="1:1">
+      <c r="D220" t="s">
+        <v>160</v>
+      </c>
+      <c r="E220" t="s">
+        <v>299</v>
+      </c>
+      <c r="F220" t="s">
+        <v>300</v>
+      </c>
+      <c r="G220">
+        <v>2</v>
+      </c>
+      <c r="H220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" customHeight="true" spans="1:9">
       <c r="A221">
         <f t="shared" si="21"/>
         <v>218</v>
+      </c>
+      <c r="D221" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221">
+        <v>60</v>
+      </c>
+      <c r="F221">
+        <v>247888</v>
+      </c>
+      <c r="G221">
+        <v>6</v>
+      </c>
+      <c r="H221" t="s">
+        <v>248</v>
+      </c>
+      <c r="I221" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="222" customHeight="true" spans="1:1">
@@ -9329,492 +9398,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D3" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F3" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D4" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F4" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H4" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="I4" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E5" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F5" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H5" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F6" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G6" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H6" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I6" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E8" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F8" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G8" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H8" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E9" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F9" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G9" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H9" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="I9" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E10" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F10" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G10" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H10" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E11" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F11" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H11" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="E12" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F12" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G12" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H12" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F13" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H13" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F14" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G14" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H14" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E15" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F15" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="H15" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
+        <v>353</v>
+      </c>
+      <c r="E16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F16" t="s">
+        <v>354</v>
+      </c>
+      <c r="G16" t="s">
         <v>348</v>
       </c>
-      <c r="E16" t="s">
-        <v>298</v>
-      </c>
-      <c r="F16" t="s">
-        <v>349</v>
-      </c>
-      <c r="G16" t="s">
-        <v>343</v>
-      </c>
       <c r="H16" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="E17" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F17" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H17" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E18" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F18" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="H18" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="I18" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E19" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F19" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="G19" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="H19" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F20" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="H20" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
+        <v>371</v>
+      </c>
+      <c r="F21" t="s">
+        <v>372</v>
+      </c>
+      <c r="G21" t="s">
         <v>366</v>
       </c>
-      <c r="F21" t="s">
-        <v>367</v>
-      </c>
-      <c r="G21" t="s">
-        <v>361</v>
-      </c>
       <c r="H21" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E22" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F22" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H22" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E23" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F23" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="G23" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="H23" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E24" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F24" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="H24" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E25" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F25" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H25" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E26" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F26" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G26" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="H26" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E27" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F27" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="G27" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H27" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="F28" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="H28" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="E29" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F29" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H29" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E30" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F30" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H30" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="E31" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F31" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="H31" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="E32" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F32" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H32" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E33" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F33" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G33" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="418">
   <si>
     <t>训练统计</t>
   </si>
@@ -921,6 +921,15 @@
   </si>
   <si>
     <t>发力的时候，要利用下背的力量向上顶，同时向上推的时候，向两边开肘，这样就会形成一个向斜上方的力；不能只靠上胸和肩膀发力</t>
+  </si>
+  <si>
+    <t>2021.1.2</t>
+  </si>
+  <si>
+    <t>70 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 3 </t>
   </si>
   <si>
     <t>6月29</t>
@@ -1287,9 +1296,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1317,11 +1326,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1333,17 +1357,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1370,15 +1408,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1387,7 +1417,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1403,45 +1449,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1449,13 +1465,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1470,7 +1479,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1482,85 +1593,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1572,43 +1617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,31 +1635,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1664,11 +1673,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1697,17 +1727,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1723,21 +1747,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1766,148 +1775,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2254,8 +2263,8 @@
   <sheetPr/>
   <dimension ref="A1:L618"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F206" workbookViewId="0">
-      <selection activeCell="I221" sqref="I221"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="H225" sqref="H225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -6984,28 +6993,85 @@
         <v>301</v>
       </c>
     </row>
-    <row r="222" customHeight="true" spans="1:1">
+    <row r="222" customHeight="true" spans="1:8">
       <c r="A222">
         <f t="shared" si="21"/>
         <v>219</v>
       </c>
-    </row>
-    <row r="223" customHeight="true" spans="1:1">
+      <c r="C222" t="s">
+        <v>302</v>
+      </c>
+      <c r="D222" t="s">
+        <v>12</v>
+      </c>
+      <c r="E222">
+        <v>60</v>
+      </c>
+      <c r="F222">
+        <v>226666</v>
+      </c>
+      <c r="G222">
+        <v>6</v>
+      </c>
+      <c r="H222" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="223" customHeight="true" spans="1:8">
       <c r="A223">
         <f t="shared" si="21"/>
         <v>220</v>
       </c>
-    </row>
-    <row r="224" customHeight="true" spans="1:1">
+      <c r="D223" t="s">
+        <v>160</v>
+      </c>
+      <c r="E223" t="s">
+        <v>303</v>
+      </c>
+      <c r="F223" t="s">
+        <v>304</v>
+      </c>
+      <c r="G223">
+        <v>2</v>
+      </c>
+      <c r="H223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" customHeight="true" spans="1:8">
       <c r="A224">
         <f t="shared" si="21"/>
         <v>221</v>
       </c>
-    </row>
-    <row r="225" customHeight="true" spans="1:1">
+      <c r="D224" t="s">
+        <v>17</v>
+      </c>
+      <c r="E224">
+        <v>60</v>
+      </c>
+      <c r="F224">
+        <v>347889</v>
+      </c>
+      <c r="G224">
+        <v>6</v>
+      </c>
+      <c r="H224" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="225" customHeight="true" spans="1:7">
       <c r="A225">
         <f t="shared" si="21"/>
         <v>222</v>
+      </c>
+      <c r="D225" t="s">
+        <v>18</v>
+      </c>
+      <c r="F225">
+        <v>888886</v>
+      </c>
+      <c r="G225">
+        <v>6</v>
       </c>
     </row>
     <row r="226" customHeight="true" spans="1:1">
@@ -9398,492 +9464,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E5" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G6" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H6" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="I6" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H8" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F9" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H9" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="I9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E10" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F10" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G10" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H10" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E11" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F11" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H11" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E12" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F12" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G12" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H12" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F13" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H13" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F14" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G14" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H14" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E15" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F15" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H15" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E16" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F16" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G16" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H16" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E17" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F17" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H17" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E18" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F18" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H18" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="I18" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E19" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F19" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G19" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H19" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F20" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H20" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F21" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G21" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H21" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E22" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F22" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H22" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E23" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F23" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G23" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H23" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E24" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F24" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H24" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E25" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F25" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H25" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E26" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F26" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G26" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H26" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E27" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F27" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G27" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H27" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F28" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H28" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E29" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F29" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H29" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E30" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F30" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H30" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E31" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F31" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="H31" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E32" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F32" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H32" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E33" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F33" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G33" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -1296,10 +1296,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1326,8 +1326,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1341,11 +1349,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1356,8 +1418,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1372,92 +1457,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1479,7 +1479,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,25 +1593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1527,31 +1611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1563,7 +1629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1575,91 +1641,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1670,6 +1670,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1684,6 +1717,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1706,65 +1765,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1775,148 +1775,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2263,8 +2263,8 @@
   <sheetPr/>
   <dimension ref="A1:L618"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="H225" sqref="H225"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -2398,6 +2398,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -2483,6 +2486,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
@@ -2555,6 +2561,9 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -2621,6 +2630,9 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
       <c r="C17" t="s">
         <v>38</v>
       </c>
@@ -2675,6 +2687,9 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
       <c r="C19" t="s">
         <v>42</v>
       </c>
@@ -2744,6 +2759,9 @@
         <f t="shared" ref="A22:A31" si="2">ROW()-3</f>
         <v>19</v>
       </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
       <c r="C22" t="s">
         <v>48</v>
       </c>
@@ -2819,6 +2837,9 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
       <c r="C25" t="s">
         <v>54</v>
       </c>
@@ -2894,6 +2915,9 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
       <c r="C28" t="s">
         <v>59</v>
       </c>
@@ -2945,6 +2969,9 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
       <c r="C30" t="s">
         <v>62</v>
       </c>
@@ -3017,6 +3044,9 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
       <c r="C33" t="s">
         <v>68</v>
       </c>
@@ -3089,6 +3119,9 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
       <c r="C36" t="s">
         <v>74</v>
       </c>
@@ -3161,6 +3194,9 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
       <c r="C39" t="s">
         <v>79</v>
       </c>
@@ -3215,6 +3251,9 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
+      <c r="B41">
+        <v>14</v>
+      </c>
       <c r="C41" t="s">
         <v>83</v>
       </c>
@@ -3281,6 +3320,9 @@
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
       <c r="C44" t="s">
         <v>89</v>
       </c>
@@ -3344,6 +3386,9 @@
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
+      <c r="B47">
+        <v>16</v>
+      </c>
       <c r="C47" t="s">
         <v>90</v>
       </c>
@@ -3410,6 +3455,9 @@
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
+      <c r="B50">
+        <v>17</v>
+      </c>
       <c r="C50" t="s">
         <v>91</v>
       </c>
@@ -3467,6 +3515,9 @@
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
+      <c r="B53">
+        <v>18</v>
+      </c>
       <c r="C53" t="s">
         <v>93</v>
       </c>
@@ -3515,6 +3566,9 @@
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
+      <c r="B55">
+        <v>19</v>
+      </c>
       <c r="C55" t="s">
         <v>95</v>
       </c>
@@ -3584,6 +3638,9 @@
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
+      <c r="B58">
+        <v>20</v>
+      </c>
       <c r="C58" t="s">
         <v>99</v>
       </c>
@@ -3659,6 +3716,9 @@
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
+      <c r="B61">
+        <v>21</v>
+      </c>
       <c r="C61" t="s">
         <v>108</v>
       </c>
@@ -3731,6 +3791,9 @@
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
+      <c r="B64">
+        <v>22</v>
+      </c>
       <c r="C64" t="s">
         <v>114</v>
       </c>
@@ -3782,6 +3845,9 @@
         <f t="shared" si="6"/>
         <v>63</v>
       </c>
+      <c r="B66">
+        <v>23</v>
+      </c>
       <c r="C66" t="s">
         <v>117</v>
       </c>
@@ -3869,6 +3935,9 @@
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
+      <c r="B70">
+        <v>24</v>
+      </c>
       <c r="C70" t="s">
         <v>126</v>
       </c>
@@ -3944,6 +4013,9 @@
         <f t="shared" si="7"/>
         <v>70</v>
       </c>
+      <c r="B73">
+        <v>25</v>
+      </c>
       <c r="C73" t="s">
         <v>134</v>
       </c>
@@ -4019,6 +4091,9 @@
         <f t="shared" si="7"/>
         <v>73</v>
       </c>
+      <c r="B76">
+        <v>26</v>
+      </c>
       <c r="C76" t="s">
         <v>140</v>
       </c>
@@ -4082,6 +4157,9 @@
         <f t="shared" si="7"/>
         <v>76</v>
       </c>
+      <c r="B79">
+        <v>27</v>
+      </c>
       <c r="C79" t="s">
         <v>145</v>
       </c>
@@ -4151,6 +4229,9 @@
         <f t="shared" si="7"/>
         <v>79</v>
       </c>
+      <c r="B82">
+        <v>28</v>
+      </c>
       <c r="C82" t="s">
         <v>149</v>
       </c>
@@ -4235,6 +4316,9 @@
         <f t="shared" ref="A86:A100" si="8">ROW()-3</f>
         <v>83</v>
       </c>
+      <c r="B86">
+        <v>29</v>
+      </c>
       <c r="C86" t="s">
         <v>155</v>
       </c>
@@ -4292,6 +4376,9 @@
         <f t="shared" si="8"/>
         <v>86</v>
       </c>
+      <c r="B89">
+        <v>30</v>
+      </c>
       <c r="C89" t="s">
         <v>158</v>
       </c>
@@ -4367,6 +4454,9 @@
         <f t="shared" si="8"/>
         <v>89</v>
       </c>
+      <c r="B92">
+        <v>31</v>
+      </c>
       <c r="C92" t="s">
         <v>165</v>
       </c>
@@ -4469,6 +4559,9 @@
         <f t="shared" si="8"/>
         <v>94</v>
       </c>
+      <c r="B97">
+        <v>32</v>
+      </c>
       <c r="C97" t="s">
         <v>172</v>
       </c>
@@ -4574,6 +4667,9 @@
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
+      <c r="B102">
+        <v>33</v>
+      </c>
       <c r="C102" t="s">
         <v>179</v>
       </c>
@@ -4664,6 +4760,9 @@
         <f t="shared" si="9"/>
         <v>103</v>
       </c>
+      <c r="B106">
+        <v>34</v>
+      </c>
       <c r="C106" t="s">
         <v>185</v>
       </c>
@@ -4781,6 +4880,9 @@
         <f t="shared" si="10"/>
         <v>109</v>
       </c>
+      <c r="B112">
+        <v>35</v>
+      </c>
       <c r="C112" t="s">
         <v>195</v>
       </c>
@@ -4865,6 +4967,9 @@
         <f t="shared" ref="A116:A125" si="11">ROW()-3</f>
         <v>113</v>
       </c>
+      <c r="B116">
+        <v>36</v>
+      </c>
       <c r="C116" t="s">
         <v>201</v>
       </c>
@@ -4940,6 +5045,9 @@
         <f t="shared" si="11"/>
         <v>117</v>
       </c>
+      <c r="B120">
+        <v>37</v>
+      </c>
       <c r="C120" t="s">
         <v>204</v>
       </c>
@@ -5006,6 +5114,9 @@
         <f t="shared" si="11"/>
         <v>120</v>
       </c>
+      <c r="B123">
+        <v>38</v>
+      </c>
       <c r="C123" t="s">
         <v>206</v>
       </c>
@@ -5090,6 +5201,9 @@
         <f t="shared" si="12"/>
         <v>124</v>
       </c>
+      <c r="B127">
+        <v>39</v>
+      </c>
       <c r="C127" t="s">
         <v>211</v>
       </c>
@@ -5177,6 +5291,9 @@
         <f t="shared" si="12"/>
         <v>128</v>
       </c>
+      <c r="B131">
+        <v>40</v>
+      </c>
       <c r="C131" t="s">
         <v>218</v>
       </c>
@@ -5258,6 +5375,9 @@
         <f t="shared" si="13"/>
         <v>132</v>
       </c>
+      <c r="B135">
+        <v>41</v>
+      </c>
       <c r="C135" t="s">
         <v>223</v>
       </c>
@@ -5345,6 +5465,9 @@
         <f t="shared" si="13"/>
         <v>136</v>
       </c>
+      <c r="B139">
+        <v>42</v>
+      </c>
       <c r="C139" t="s">
         <v>226</v>
       </c>
@@ -5420,6 +5543,9 @@
         <f t="shared" si="13"/>
         <v>139</v>
       </c>
+      <c r="B142">
+        <v>43</v>
+      </c>
       <c r="C142" t="s">
         <v>231</v>
       </c>
@@ -5489,6 +5615,9 @@
         <f t="shared" si="14"/>
         <v>142</v>
       </c>
+      <c r="B145">
+        <v>44</v>
+      </c>
       <c r="C145" t="s">
         <v>235</v>
       </c>
@@ -5570,6 +5699,9 @@
         <f t="shared" si="14"/>
         <v>146</v>
       </c>
+      <c r="B149">
+        <v>45</v>
+      </c>
       <c r="C149" t="s">
         <v>238</v>
       </c>
@@ -5654,6 +5786,9 @@
         <f t="shared" si="14"/>
         <v>150</v>
       </c>
+      <c r="B153">
+        <v>46</v>
+      </c>
       <c r="C153" t="s">
         <v>243</v>
       </c>
@@ -5756,6 +5891,9 @@
         <f t="shared" si="15"/>
         <v>155</v>
       </c>
+      <c r="B158">
+        <v>47</v>
+      </c>
       <c r="C158" t="s">
         <v>251</v>
       </c>
@@ -5852,6 +5990,9 @@
         <f t="shared" si="15"/>
         <v>160</v>
       </c>
+      <c r="B163">
+        <v>48</v>
+      </c>
       <c r="C163" t="s">
         <v>256</v>
       </c>
@@ -5948,6 +6089,9 @@
         <f t="shared" ref="A168:A177" si="16">ROW()-3</f>
         <v>165</v>
       </c>
+      <c r="B168">
+        <v>49</v>
+      </c>
       <c r="C168" t="s">
         <v>262</v>
       </c>
@@ -6038,6 +6182,9 @@
         <f t="shared" si="16"/>
         <v>170</v>
       </c>
+      <c r="B173">
+        <v>50</v>
+      </c>
       <c r="C173" t="s">
         <v>266</v>
       </c>
@@ -6128,6 +6275,9 @@
         <f t="shared" ref="A178:A187" si="17">ROW()-3</f>
         <v>175</v>
       </c>
+      <c r="B178">
+        <v>51</v>
+      </c>
       <c r="C178" t="s">
         <v>270</v>
       </c>
@@ -6218,6 +6368,9 @@
         <f t="shared" si="17"/>
         <v>180</v>
       </c>
+      <c r="B183">
+        <v>52</v>
+      </c>
       <c r="C183" t="s">
         <v>271</v>
       </c>
@@ -6320,6 +6473,9 @@
         <f t="shared" si="18"/>
         <v>186</v>
       </c>
+      <c r="B189">
+        <v>53</v>
+      </c>
       <c r="C189" t="s">
         <v>274</v>
       </c>
@@ -6428,6 +6584,9 @@
         <f t="shared" si="18"/>
         <v>192</v>
       </c>
+      <c r="B195">
+        <v>54</v>
+      </c>
       <c r="C195" t="s">
         <v>278</v>
       </c>
@@ -6512,6 +6671,9 @@
         <f t="shared" si="19"/>
         <v>196</v>
       </c>
+      <c r="B199">
+        <v>55</v>
+      </c>
       <c r="C199" t="s">
         <v>282</v>
       </c>
@@ -6599,6 +6761,9 @@
         <f t="shared" si="19"/>
         <v>200</v>
       </c>
+      <c r="B203">
+        <v>56</v>
+      </c>
       <c r="C203" t="s">
         <v>285</v>
       </c>
@@ -6680,6 +6845,9 @@
         <f t="shared" si="19"/>
         <v>204</v>
       </c>
+      <c r="B207">
+        <v>57</v>
+      </c>
       <c r="C207" t="s">
         <v>286</v>
       </c>
@@ -6767,6 +6935,9 @@
         <f t="shared" si="20"/>
         <v>208</v>
       </c>
+      <c r="B211">
+        <v>58</v>
+      </c>
       <c r="C211" t="s">
         <v>291</v>
       </c>
@@ -6863,6 +7034,9 @@
         <f t="shared" si="20"/>
         <v>213</v>
       </c>
+      <c r="B216">
+        <v>59</v>
+      </c>
       <c r="C216" t="s">
         <v>294</v>
       </c>
@@ -6926,6 +7100,9 @@
         <f t="shared" si="21"/>
         <v>216</v>
       </c>
+      <c r="B219">
+        <v>60</v>
+      </c>
       <c r="C219" t="s">
         <v>297</v>
       </c>
@@ -6997,6 +7174,9 @@
       <c r="A222">
         <f t="shared" si="21"/>
         <v>219</v>
+      </c>
+      <c r="B222">
+        <v>61</v>
       </c>
       <c r="C222" t="s">
         <v>302</v>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="423">
   <si>
     <t>训练统计</t>
   </si>
@@ -930,6 +930,21 @@
   </si>
   <si>
     <t xml:space="preserve">4 3 </t>
+  </si>
+  <si>
+    <t>2021.1.6</t>
+  </si>
+  <si>
+    <t>目前我的深蹲还是很稳定的（至少在赵老师看来是这样，也不知道是不是甩锅，因为我深蹲的时候，屈膝疼痛感很强）；目前我的左膝盖下侧有些疼痛，有一段时间了，不知道什么原因；我回想起来貌似是硬拉重心偏向左边造成的；印象中，生活中没有碰到这个位置；</t>
+  </si>
+  <si>
+    <t>腰部收住；重心在向前；脚掌踩地踩实了；</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34888 10 </t>
+  </si>
+  <si>
+    <t>卧推推起的时候，要把肘关节打到中立位；握杠的时候，用手掌的根部去支撑杠；这样推起的时候，肘关节打开到中立位（肘关节和杠在一个平面里），手掌的支撑也更充实，肱三头肌和胸肌也会有发力感；要保持力线和地面垂直；</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1296,10 +1311,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1328,91 +1343,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1433,18 +1364,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1464,7 +1411,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1479,7 +1494,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,7 +1578,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1503,49 +1632,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,25 +1650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1587,73 +1662,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1670,54 +1685,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1738,11 +1705,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1764,9 +1753,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1778,149 +1793,149 @@
     <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1941,6 +1956,9 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2263,8 +2281,8 @@
   <sheetPr/>
   <dimension ref="A1:L618"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="I233" sqref="I233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -2277,8 +2295,8 @@
     <col min="6" max="6" width="17.8866666666667" customWidth="true"/>
     <col min="7" max="7" width="11.14" customWidth="true"/>
     <col min="8" max="8" width="21.2866666666667" customWidth="true"/>
-    <col min="9" max="9" width="146.426666666667" customWidth="true"/>
-    <col min="10" max="10" width="42.7133333333333" customWidth="true"/>
+    <col min="9" max="9" width="90.9533333333333" customWidth="true"/>
+    <col min="10" max="10" width="12.78" customWidth="true"/>
     <col min="11" max="16384" width="11.14" customWidth="true"/>
   </cols>
   <sheetData>
@@ -7254,22 +7272,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" customHeight="true" spans="1:1">
+    <row r="226" customHeight="true" spans="1:9">
       <c r="A226">
         <f t="shared" si="21"/>
         <v>223</v>
       </c>
-    </row>
-    <row r="227" customHeight="true" spans="1:1">
+      <c r="B226">
+        <v>62</v>
+      </c>
+      <c r="C226" t="s">
+        <v>305</v>
+      </c>
+      <c r="D226" t="s">
+        <v>12</v>
+      </c>
+      <c r="E226">
+        <v>60</v>
+      </c>
+      <c r="F226">
+        <v>236666</v>
+      </c>
+      <c r="G226">
+        <v>6</v>
+      </c>
+      <c r="H226" t="s">
+        <v>244</v>
+      </c>
+      <c r="I226" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="227" customHeight="true" spans="1:9">
       <c r="A227">
         <f t="shared" si="21"/>
         <v>224</v>
       </c>
-    </row>
-    <row r="228" customHeight="true" spans="1:1">
+      <c r="D227" t="s">
+        <v>160</v>
+      </c>
+      <c r="E227">
+        <v>70</v>
+      </c>
+      <c r="F227" t="s">
+        <v>300</v>
+      </c>
+      <c r="G227">
+        <v>2</v>
+      </c>
+      <c r="H227">
+        <v>3</v>
+      </c>
+      <c r="I227" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="228" customHeight="true" spans="1:9">
       <c r="A228">
         <f t="shared" ref="A228:A237" si="22">ROW()-3</f>
         <v>225</v>
+      </c>
+      <c r="D228" t="s">
+        <v>17</v>
+      </c>
+      <c r="E228">
+        <v>60</v>
+      </c>
+      <c r="F228" t="s">
+        <v>308</v>
+      </c>
+      <c r="G228">
+        <v>6</v>
+      </c>
+      <c r="H228" t="s">
+        <v>248</v>
+      </c>
+      <c r="I228" s="7" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="229" customHeight="true" spans="1:1">
@@ -9644,492 +9722,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D4" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F4" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H4" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="I4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E5" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F5" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H5" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G6" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H6" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I6" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="E8" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F8" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="G8" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H8" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E9" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F9" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G9" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="I9" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="E10" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F10" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G10" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H10" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E11" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F11" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H11" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="E12" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F12" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G12" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H12" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F13" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="H13" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="F14" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G14" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H14" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E15" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F15" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H15" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
+        <v>361</v>
+      </c>
+      <c r="E16" t="s">
+        <v>311</v>
+      </c>
+      <c r="F16" t="s">
+        <v>362</v>
+      </c>
+      <c r="G16" t="s">
         <v>356</v>
       </c>
-      <c r="E16" t="s">
-        <v>306</v>
-      </c>
-      <c r="F16" t="s">
-        <v>357</v>
-      </c>
-      <c r="G16" t="s">
-        <v>351</v>
-      </c>
       <c r="H16" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E17" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F17" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="H17" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E18" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F18" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="H18" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="I18" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E19" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F19" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="G19" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="H19" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="F20" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="H20" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
+        <v>379</v>
+      </c>
+      <c r="F21" t="s">
+        <v>380</v>
+      </c>
+      <c r="G21" t="s">
         <v>374</v>
       </c>
-      <c r="F21" t="s">
-        <v>375</v>
-      </c>
-      <c r="G21" t="s">
-        <v>369</v>
-      </c>
       <c r="H21" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E22" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F22" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="H22" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="E23" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F23" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G23" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="H23" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E24" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F24" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="H24" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="E25" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F25" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H25" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="E26" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F26" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G26" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H26" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E27" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F27" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="G27" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="H27" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="F28" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="H28" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="E29" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F29" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H29" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="E30" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F30" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H30" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="E31" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F31" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="H31" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="E32" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F32" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="H32" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E33" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F33" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="G33" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17850"/>
+    <workbookView windowWidth="27795" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">34888 10 </t>
   </si>
   <si>
-    <t>卧推推起的时候，要把肘关节打到中立位；握杠的时候，用手掌的根部去支撑杠；这样推起的时候，肘关节打开到中立位（肘关节和杠在一个平面里），手掌的支撑也更充实，肱三头肌和胸肌也会有发力感；要保持力线和地面垂直；</t>
+    <t>卧推推起的时候，要把肘关节打到中立位；握杠的时候，用手掌的根部去支撑杠；这样推起的时候，肘关节容易打开到中立位（肘关节和杠在一个平面里），手掌的支撑也更充实，肱三头肌和胸肌也会有发力感；要保持力线和地面垂直；</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1311,9 +1311,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1341,6 +1341,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1349,8 +1357,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1366,66 +1441,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1439,6 +1455,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1447,8 +1470,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1456,30 +1480,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1494,7 +1494,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,7 +1536,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1524,19 +1572,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,37 +1656,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,91 +1674,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,6 +1685,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1705,33 +1753,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1753,35 +1779,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1790,152 +1790,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1956,9 +1956,6 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2281,8 +2278,8 @@
   <sheetPr/>
   <dimension ref="A1:L618"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="I233" sqref="I233"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G215" workbookViewId="0">
+      <selection activeCell="I223" sqref="I223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -7298,7 +7295,7 @@
       <c r="H226" t="s">
         <v>244</v>
       </c>
-      <c r="I226" s="7" t="s">
+      <c r="I226" s="3" t="s">
         <v>306</v>
       </c>
     </row>
@@ -7346,7 +7343,7 @@
       <c r="H228" t="s">
         <v>248</v>
       </c>
-      <c r="I228" s="7" t="s">
+      <c r="I228" s="3" t="s">
         <v>309</v>
       </c>
     </row>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12450"/>
+    <workbookView windowHeight="17850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="426">
   <si>
     <t>训练统计</t>
   </si>
@@ -944,7 +944,16 @@
     <t xml:space="preserve">34888 10 </t>
   </si>
   <si>
-    <t>卧推推起的时候，要把肘关节打到中立位；握杠的时候，用手掌的根部去支撑杠；这样推起的时候，肘关节容易打开到中立位（肘关节和杠在一个平面里），手掌的支撑也更充实，肱三头肌和胸肌也会有发力感；要保持力线和地面垂直；</t>
+    <t>卧推推起的时候，要把肘关节打到中立位；握杠的时候，用手掌的根部去支撑杠；这样推起的时候，肘关节打开到中立位（肘关节和杠在一个平面里），手掌的支撑也更充实，肱三头肌和胸肌也会有发力感；要保持力线和地面垂直；</t>
+  </si>
+  <si>
+    <t>2021.1.9</t>
+  </si>
+  <si>
+    <t>5 4</t>
+  </si>
+  <si>
+    <t>卧推的时候，在每组最后一个可以多吸两口气，多做调整一下；</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1311,10 +1320,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1341,24 +1350,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1372,53 +1372,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1432,8 +1387,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1452,6 +1423,51 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1477,13 +1493,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1494,7 +1503,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1506,7 +1527,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1518,37 +1587,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,79 +1659,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,31 +1677,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1688,21 +1697,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1718,20 +1712,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1762,6 +1753,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1776,162 +1794,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2278,8 +2287,8 @@
   <sheetPr/>
   <dimension ref="A1:L618"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G215" workbookViewId="0">
-      <selection activeCell="I223" sqref="I223"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C207" workbookViewId="0">
+      <selection activeCell="I232" sqref="I232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -7347,28 +7356,88 @@
         <v>309</v>
       </c>
     </row>
-    <row r="229" customHeight="true" spans="1:1">
+    <row r="229" customHeight="true" spans="1:8">
       <c r="A229">
         <f t="shared" si="22"/>
         <v>226</v>
       </c>
-    </row>
-    <row r="230" customHeight="true" spans="1:1">
+      <c r="B229">
+        <v>63</v>
+      </c>
+      <c r="C229" t="s">
+        <v>310</v>
+      </c>
+      <c r="D229" t="s">
+        <v>12</v>
+      </c>
+      <c r="E229">
+        <v>60</v>
+      </c>
+      <c r="F229">
+        <v>246666</v>
+      </c>
+      <c r="G229">
+        <v>6</v>
+      </c>
+      <c r="H229" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="230" customHeight="true" spans="1:7">
       <c r="A230">
         <f t="shared" si="22"/>
         <v>227</v>
       </c>
-    </row>
-    <row r="231" customHeight="true" spans="1:1">
+      <c r="D230" t="s">
+        <v>160</v>
+      </c>
+      <c r="E230" t="s">
+        <v>303</v>
+      </c>
+      <c r="F230" t="s">
+        <v>311</v>
+      </c>
+      <c r="G230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" customHeight="true" spans="1:9">
       <c r="A231">
         <f t="shared" si="22"/>
         <v>228</v>
       </c>
-    </row>
-    <row r="232" customHeight="true" spans="1:1">
+      <c r="D231" t="s">
+        <v>17</v>
+      </c>
+      <c r="E231">
+        <v>60</v>
+      </c>
+      <c r="F231">
+        <v>358889</v>
+      </c>
+      <c r="G231">
+        <v>6</v>
+      </c>
+      <c r="H231" t="s">
+        <v>248</v>
+      </c>
+      <c r="I231" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="232" customHeight="true" spans="1:7">
       <c r="A232">
         <f t="shared" si="22"/>
         <v>229</v>
+      </c>
+      <c r="D232" t="s">
+        <v>18</v>
+      </c>
+      <c r="F232">
+        <v>888886</v>
+      </c>
+      <c r="G232">
+        <v>6</v>
       </c>
     </row>
     <row r="233" customHeight="true" spans="1:1">
@@ -9719,492 +9788,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="I4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E5" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H5" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F6" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G6" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H6" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I6" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E8" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F8" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G8" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H8" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F9" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H9" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I9" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E10" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F10" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G10" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H10" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E11" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F11" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H11" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E12" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F12" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H12" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F13" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H13" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F14" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G14" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H14" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E15" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F15" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H15" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E16" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F16" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G16" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H16" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E17" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F17" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H17" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E18" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F18" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H18" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I18" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E19" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F19" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G19" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H19" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F20" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H20" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F21" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G21" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H21" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E22" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F22" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H22" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E23" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F23" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G23" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H23" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E24" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F24" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H24" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E25" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F25" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H25" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E26" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F26" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G26" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H26" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E27" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F27" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G27" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H27" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F28" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H28" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E29" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F29" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H29" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E30" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F30" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H30" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E31" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F31" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H31" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E32" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F32" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H32" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E33" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F33" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G33" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -944,7 +944,7 @@
     <t xml:space="preserve">34888 10 </t>
   </si>
   <si>
-    <t>卧推推起的时候，要把肘关节打到中立位；握杠的时候，用手掌的根部去支撑杠；这样推起的时候，肘关节打开到中立位（肘关节和杠在一个平面里），手掌的支撑也更充实，肱三头肌和胸肌也会有发力感；要保持力线和地面垂直；</t>
+    <t>卧推推起的时候，要把肘关节打到中立位；握杠的时候，用手掌的根部去支撑杠；这样推起的时候，肘关节容易打开到中立位（肘关节和杠在一个平面里），手掌的支撑也更充实，肱三头肌和胸肌也会有发力感；要保持力线和地面垂直；</t>
   </si>
   <si>
     <t>2021.1.9</t>
@@ -2288,7 +2288,7 @@
   <dimension ref="A1:L618"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C207" workbookViewId="0">
-      <selection activeCell="I232" sqref="I232"/>
+      <selection activeCell="I233" sqref="I233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="428">
   <si>
     <t>训练统计</t>
   </si>
@@ -954,6 +954,12 @@
   </si>
   <si>
     <t>卧推的时候，在每组最后一个可以多吸两口气，多做调整一下；</t>
+  </si>
+  <si>
+    <t>2021.1.13</t>
+  </si>
+  <si>
+    <t>今天在第5组的时候，最后一个被压了；以后还是得小心，尤其是磨练技术；这次训练，还是找不到老师所说的身体紧绷感，背部发力；可能还是因为自己老是想着时间的事，因为想赶紧回来，下次一定注意。</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1320,8 +1326,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1350,6 +1356,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1364,39 +1409,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1404,7 +1418,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1420,14 +1434,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1447,52 +1499,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1503,25 +1509,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1539,7 +1557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1551,13 +1575,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,25 +1599,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1599,25 +1623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1635,19 +1641,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1659,31 +1683,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1708,6 +1714,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1744,17 +1759,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1765,17 +1769,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1799,152 +1805,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1965,6 +1971,9 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2287,8 +2296,8 @@
   <sheetPr/>
   <dimension ref="A1:L618"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C207" workbookViewId="0">
-      <selection activeCell="I233" sqref="I233"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B221" workbookViewId="0">
+      <selection activeCell="I237" sqref="I237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -7440,16 +7449,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" customHeight="true" spans="1:1">
+    <row r="233" customHeight="true" spans="1:8">
       <c r="A233">
         <f t="shared" si="22"/>
         <v>230</v>
       </c>
-    </row>
-    <row r="234" customHeight="true" spans="1:1">
+      <c r="C233" t="s">
+        <v>313</v>
+      </c>
+      <c r="D233" t="s">
+        <v>12</v>
+      </c>
+      <c r="E233">
+        <v>60</v>
+      </c>
+      <c r="F233">
+        <v>256666</v>
+      </c>
+      <c r="G233">
+        <v>6</v>
+      </c>
+      <c r="H233" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="234" customHeight="true" spans="1:9">
       <c r="A234">
         <f t="shared" si="22"/>
         <v>231</v>
+      </c>
+      <c r="D234" t="s">
+        <v>17</v>
+      </c>
+      <c r="E234">
+        <v>60</v>
+      </c>
+      <c r="F234">
+        <v>368889</v>
+      </c>
+      <c r="G234">
+        <v>6</v>
+      </c>
+      <c r="H234" t="s">
+        <v>248</v>
+      </c>
+      <c r="I234" s="7" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="235" customHeight="true" spans="1:1">
@@ -9788,492 +9833,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F6" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H6" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I6" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F8" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E11" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F11" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H11" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E12" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F12" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G12" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H12" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F13" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H13" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F14" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G14" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H14" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E15" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F15" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H15" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E16" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F16" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G16" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H16" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E17" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F17" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H17" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F18" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H18" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I18" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E19" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F19" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G19" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H19" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F20" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H20" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F21" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G21" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H21" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E22" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F22" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H22" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E23" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F23" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G23" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H23" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E24" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F24" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H24" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E25" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F25" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H25" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E26" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F26" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G26" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H26" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E27" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F27" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G27" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H27" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F28" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H28" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E29" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F29" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H29" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E30" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F30" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H30" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E31" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F31" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H31" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E32" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F32" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H32" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E33" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F33" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G33" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17850"/>
+    <workbookView windowWidth="27795" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="432">
   <si>
     <t>训练统计</t>
   </si>
@@ -960,6 +960,18 @@
   </si>
   <si>
     <t>今天在第5组的时候，最后一个被压了；以后还是得小心，尤其是磨练技术；这次训练，还是找不到老师所说的身体紧绷感，背部发力；可能还是因为自己老是想着时间的事，因为想赶紧回来，下次一定注意。</t>
+  </si>
+  <si>
+    <t>2021.1.16</t>
+  </si>
+  <si>
+    <t>力量举训练，需求的肺活量和有氧训练需要的肺活量不一样；力量举训练需求的肺活量还得靠大容量的训练来提高；另外，在做组的时候，最后一个不能着急，一定要稳住膝盖。</t>
+  </si>
+  <si>
+    <t>直腿硬拉重量不太重的时候（目前就是不太重），身体不用完全打直，也就是在拉起后身体没有锁定之前就下落，这样持续的做；也可以保持大腿后侧链的最大拉伸感；</t>
+  </si>
+  <si>
+    <t>轨迹做好；落点要准确，也就是保持一致</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1327,8 +1339,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1364,9 +1376,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1380,35 +1391,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1417,8 +1399,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1455,6 +1445,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1470,25 +1497,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1509,7 +1521,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1521,61 +1599,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1587,37 +1641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1635,25 +1665,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1665,31 +1689,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1700,6 +1712,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1714,15 +1735,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1757,6 +1769,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1774,173 +1812,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2296,8 +2308,8 @@
   <sheetPr/>
   <dimension ref="A1:L618"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B221" workbookViewId="0">
-      <selection activeCell="I237" sqref="I237"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="H238" sqref="H238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -7493,32 +7505,98 @@
       <c r="H234" t="s">
         <v>248</v>
       </c>
-      <c r="I234" s="7" t="s">
+      <c r="I234" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="235" customHeight="true" spans="1:1">
+    <row r="235" customHeight="true" spans="1:9">
       <c r="A235">
         <f t="shared" si="22"/>
         <v>232</v>
       </c>
-    </row>
-    <row r="236" customHeight="true" spans="1:1">
+      <c r="C235" t="s">
+        <v>315</v>
+      </c>
+      <c r="D235" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235">
+        <v>60</v>
+      </c>
+      <c r="F235">
+        <v>266666</v>
+      </c>
+      <c r="G235">
+        <v>6</v>
+      </c>
+      <c r="H235" t="s">
+        <v>248</v>
+      </c>
+      <c r="I235" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="236" customHeight="true" spans="1:9">
       <c r="A236">
         <f t="shared" si="22"/>
         <v>233</v>
       </c>
-    </row>
-    <row r="237" customHeight="true" spans="1:1">
+      <c r="D236" t="s">
+        <v>160</v>
+      </c>
+      <c r="E236">
+        <v>70</v>
+      </c>
+      <c r="F236" t="s">
+        <v>300</v>
+      </c>
+      <c r="G236">
+        <v>2</v>
+      </c>
+      <c r="H236">
+        <v>3</v>
+      </c>
+      <c r="I236" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="237" customHeight="true" spans="1:9">
       <c r="A237">
         <f t="shared" si="22"/>
         <v>234</v>
       </c>
-    </row>
-    <row r="238" customHeight="true" spans="1:1">
+      <c r="D237" t="s">
+        <v>17</v>
+      </c>
+      <c r="E237">
+        <v>60</v>
+      </c>
+      <c r="F237">
+        <v>378889</v>
+      </c>
+      <c r="G237">
+        <v>6</v>
+      </c>
+      <c r="H237" t="s">
+        <v>248</v>
+      </c>
+      <c r="I237" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="238" customHeight="true" spans="1:7">
       <c r="A238">
         <f t="shared" ref="A238:A247" si="23">ROW()-3</f>
         <v>235</v>
+      </c>
+      <c r="D238" t="s">
+        <v>18</v>
+      </c>
+      <c r="F238">
+        <v>888888</v>
+      </c>
+      <c r="G238">
+        <v>6</v>
       </c>
     </row>
     <row r="239" customHeight="true" spans="1:1">
@@ -9833,492 +9911,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D3" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F3" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H3" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H4" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="I4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E5" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F6" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G6" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H6" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I6" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E8" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F8" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G8" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H8" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E9" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F9" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G9" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H9" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="I9" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E10" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F10" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H10" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E11" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F11" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H11" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E12" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F12" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G12" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H12" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F13" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H13" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F14" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G14" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H14" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E15" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F15" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H15" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E16" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F16" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G16" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H16" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E17" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H17" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E18" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F18" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H18" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="I18" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E19" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F19" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G19" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H19" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F20" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H20" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F21" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G21" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H21" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E22" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F22" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H22" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E23" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F23" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G23" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H23" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="E24" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F24" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H24" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E25" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F25" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H25" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E26" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F26" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G26" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H26" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E27" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F27" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G27" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H27" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F28" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H28" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E29" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F29" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H29" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="E30" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F30" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="H30" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E31" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F31" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="H31" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E32" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F32" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H32" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="E33" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F33" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G33" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12450"/>
+    <workbookView windowHeight="17850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="436">
   <si>
     <t>训练统计</t>
   </si>
@@ -972,6 +972,18 @@
   </si>
   <si>
     <t>轨迹做好；落点要准确，也就是保持一致</t>
+  </si>
+  <si>
+    <t>2020.1.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 80 </t>
+  </si>
+  <si>
+    <t>5 4 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38888 10 </t>
   </si>
   <si>
     <t>6月29</t>
@@ -1368,106 +1380,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -1476,21 +1388,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1511,6 +1409,120 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1521,7 +1533,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1533,31 +1617,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,37 +1665,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1617,19 +1683,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1641,61 +1707,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1719,22 +1731,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1750,21 +1747,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1795,11 +1777,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1817,152 +1829,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1983,9 +1995,6 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2308,8 +2317,8 @@
   <sheetPr/>
   <dimension ref="A1:L618"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="H238" sqref="H238"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B228" workbookViewId="0">
+      <selection activeCell="D242" sqref="D242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -7532,7 +7541,7 @@
       <c r="H235" t="s">
         <v>248</v>
       </c>
-      <c r="I235" s="7" t="s">
+      <c r="I235" s="3" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7556,7 +7565,7 @@
       <c r="H236">
         <v>3</v>
       </c>
-      <c r="I236" s="7" t="s">
+      <c r="I236" s="3" t="s">
         <v>317</v>
       </c>
     </row>
@@ -7599,22 +7608,70 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" customHeight="true" spans="1:1">
+    <row r="239" customHeight="true" spans="1:8">
       <c r="A239">
         <f t="shared" si="23"/>
         <v>236</v>
       </c>
-    </row>
-    <row r="240" customHeight="true" spans="1:1">
+      <c r="C239" t="s">
+        <v>319</v>
+      </c>
+      <c r="D239" t="s">
+        <v>12</v>
+      </c>
+      <c r="E239">
+        <v>60</v>
+      </c>
+      <c r="F239">
+        <v>366666</v>
+      </c>
+      <c r="G239">
+        <v>6</v>
+      </c>
+      <c r="H239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" customHeight="true" spans="1:8">
       <c r="A240">
         <f t="shared" si="23"/>
         <v>237</v>
       </c>
-    </row>
-    <row r="241" customHeight="true" spans="1:1">
+      <c r="D240" t="s">
+        <v>160</v>
+      </c>
+      <c r="E240" t="s">
+        <v>320</v>
+      </c>
+      <c r="F240" t="s">
+        <v>321</v>
+      </c>
+      <c r="G240">
+        <v>3</v>
+      </c>
+      <c r="H240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" customHeight="true" spans="1:8">
       <c r="A241">
         <f t="shared" si="23"/>
         <v>238</v>
+      </c>
+      <c r="D241" t="s">
+        <v>17</v>
+      </c>
+      <c r="E241">
+        <v>60</v>
+      </c>
+      <c r="F241" t="s">
+        <v>322</v>
+      </c>
+      <c r="G241">
+        <v>6</v>
+      </c>
+      <c r="H241">
+        <v>4</v>
       </c>
     </row>
     <row r="242" customHeight="true" spans="1:1">
@@ -9911,492 +9968,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D3" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H3" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F4" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="I4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H5" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F6" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H6" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="I6" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E8" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F8" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G8" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H8" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E9" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F9" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G9" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H9" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="I9" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E10" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F10" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G10" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H10" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E11" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F11" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H11" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E12" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F12" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G12" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H12" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F13" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H13" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F14" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G14" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H14" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E15" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F15" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H15" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E16" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F16" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G16" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H16" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E17" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F17" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H17" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E18" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F18" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H18" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="I18" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F19" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G19" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H19" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F20" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H20" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F21" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="G21" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H21" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="E22" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F22" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H22" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="E23" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F23" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="G23" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H23" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E24" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F24" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H24" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E25" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F25" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H25" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E26" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F26" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G26" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H26" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E27" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F27" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G27" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H27" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F28" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H28" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="E29" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F29" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="H29" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E30" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F30" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H30" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="E31" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F31" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="H31" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E32" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F32" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H32" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E33" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F33" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G33" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="440">
   <si>
     <t>训练统计</t>
   </si>
@@ -984,6 +984,18 @@
   </si>
   <si>
     <t xml:space="preserve">38888 10 </t>
+  </si>
+  <si>
+    <t>2021.1.23</t>
+  </si>
+  <si>
+    <t>4 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48888 12 </t>
+  </si>
+  <si>
+    <t>卧推的时候，大臂和小臂的之间的夹角不能太大，保持在直角以及略小于直角的锐角范围之内；</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1350,9 +1362,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1380,38 +1392,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1419,44 +1409,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1465,6 +1418,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1486,15 +1446,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1502,7 +1463,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1516,9 +1529,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1533,7 +1545,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1545,139 +1695,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1701,19 +1725,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1731,7 +1743,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1747,6 +1774,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1777,45 +1828,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1829,148 +1841,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2318,7 +2330,7 @@
   <dimension ref="A1:L618"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B228" workbookViewId="0">
-      <selection activeCell="D242" sqref="D242"/>
+      <selection activeCell="G247" sqref="G247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -7674,28 +7686,85 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" customHeight="true" spans="1:1">
+    <row r="242" customHeight="true" spans="1:8">
       <c r="A242">
         <f t="shared" si="23"/>
         <v>239</v>
       </c>
-    </row>
-    <row r="243" customHeight="true" spans="1:1">
+      <c r="C242" t="s">
+        <v>323</v>
+      </c>
+      <c r="D242" t="s">
+        <v>12</v>
+      </c>
+      <c r="E242">
+        <v>60</v>
+      </c>
+      <c r="F242">
+        <v>466666</v>
+      </c>
+      <c r="G242">
+        <v>6</v>
+      </c>
+      <c r="H242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" customHeight="true" spans="1:7">
       <c r="A243">
         <f t="shared" si="23"/>
         <v>240</v>
       </c>
-    </row>
-    <row r="244" customHeight="true" spans="1:1">
+      <c r="D243" t="s">
+        <v>14</v>
+      </c>
+      <c r="E243">
+        <v>80</v>
+      </c>
+      <c r="F243" t="s">
+        <v>324</v>
+      </c>
+      <c r="G243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" customHeight="true" spans="1:9">
       <c r="A244">
         <f t="shared" si="23"/>
         <v>241</v>
       </c>
-    </row>
-    <row r="245" customHeight="true" spans="1:1">
+      <c r="D244" t="s">
+        <v>17</v>
+      </c>
+      <c r="E244">
+        <v>60</v>
+      </c>
+      <c r="F244" t="s">
+        <v>325</v>
+      </c>
+      <c r="G244">
+        <v>6</v>
+      </c>
+      <c r="H244" t="s">
+        <v>248</v>
+      </c>
+      <c r="I244" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="245" customHeight="true" spans="1:7">
       <c r="A245">
         <f t="shared" si="23"/>
         <v>242</v>
+      </c>
+      <c r="D245" t="s">
+        <v>18</v>
+      </c>
+      <c r="F245">
+        <v>83888</v>
+      </c>
+      <c r="G245">
+        <v>5</v>
       </c>
     </row>
     <row r="246" customHeight="true" spans="1:1">
@@ -9968,492 +10037,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D3" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H3" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H4" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="I4" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F5" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H5" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F6" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G6" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H6" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="I6" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F8" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H8" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E9" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F9" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G9" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H9" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I9" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E10" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F10" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G10" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F11" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H11" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E12" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F12" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G12" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H12" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F13" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H13" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F14" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G14" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H14" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E15" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F15" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H15" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E16" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F16" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G16" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H16" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E17" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F17" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H17" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E18" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F18" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H18" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="I18" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E19" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F19" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G19" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H19" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F20" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H20" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F21" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G21" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H21" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E22" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F22" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H22" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E23" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F23" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G23" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H23" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E24" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F24" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H24" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E25" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F25" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H25" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E26" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F26" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G26" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H26" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E27" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F27" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G27" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H27" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F28" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H28" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E29" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F29" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H29" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="E30" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F30" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H30" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="E31" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F31" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H31" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E32" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F32" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="H32" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E33" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F33" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="G33" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="447">
   <si>
     <t>训练统计</t>
   </si>
@@ -996,6 +996,27 @@
   </si>
   <si>
     <t>卧推的时候，大臂和小臂的之间的夹角不能太大，保持在直角以及略小于直角的锐角范围之内；</t>
+  </si>
+  <si>
+    <t>2021.1.27</t>
+  </si>
+  <si>
+    <t>今天的深蹲感觉不是很好；不是很稳，而且动作质量不是很高</t>
+  </si>
+  <si>
+    <t>70 80 90</t>
+  </si>
+  <si>
+    <t>5 4 1</t>
+  </si>
+  <si>
+    <t>当离心（也就是下落）的时候，腰部要收紧，重心在前脚掌，脚踩实了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58888 12 </t>
+  </si>
+  <si>
+    <t>卧推的感觉也不是很好，比上次累；动作质量不是很好；这次感觉肩膀有些不适了；原因：1.落点不稳定，在一组中，落点会变化；2.夹肘也不是很自然，不像老师说的，下落时略夹肘，推起时肘打开，肘关节与杠铃杆在一个平面内；下次一定注意！</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1362,10 +1383,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1392,24 +1413,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1423,8 +1443,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1438,9 +1459,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1448,6 +1469,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1463,7 +1514,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1478,59 +1544,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1542,6 +1563,18 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1557,7 +1590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1575,7 +1608,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1587,31 +1710,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1623,109 +1740,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1741,8 +1762,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1763,6 +1786,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1774,15 +1815,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1802,6 +1834,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1816,177 +1857,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2007,6 +2028,9 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2330,7 +2354,7 @@
   <dimension ref="A1:L618"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B228" workbookViewId="0">
-      <selection activeCell="G247" sqref="G247"/>
+      <selection activeCell="D248" sqref="D248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -7767,22 +7791,79 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" customHeight="true" spans="1:1">
+    <row r="246" customHeight="true" spans="1:9">
       <c r="A246">
         <f t="shared" si="23"/>
         <v>243</v>
       </c>
-    </row>
-    <row r="247" customHeight="true" spans="1:1">
+      <c r="C246" t="s">
+        <v>327</v>
+      </c>
+      <c r="D246" t="s">
+        <v>12</v>
+      </c>
+      <c r="E246">
+        <v>60</v>
+      </c>
+      <c r="F246">
+        <v>566666</v>
+      </c>
+      <c r="G246">
+        <v>6</v>
+      </c>
+      <c r="H246">
+        <v>3</v>
+      </c>
+      <c r="I246" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="247" customHeight="true" spans="1:9">
       <c r="A247">
         <f t="shared" si="23"/>
         <v>244</v>
       </c>
-    </row>
-    <row r="248" customHeight="true" spans="1:1">
+      <c r="D247" t="s">
+        <v>160</v>
+      </c>
+      <c r="E247" t="s">
+        <v>329</v>
+      </c>
+      <c r="F247" t="s">
+        <v>330</v>
+      </c>
+      <c r="G247">
+        <v>3</v>
+      </c>
+      <c r="H247">
+        <v>3</v>
+      </c>
+      <c r="I247" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="248" customHeight="true" spans="1:9">
       <c r="A248">
         <f t="shared" ref="A248:A257" si="24">ROW()-3</f>
         <v>245</v>
+      </c>
+      <c r="D248" t="s">
+        <v>17</v>
+      </c>
+      <c r="E248">
+        <v>60</v>
+      </c>
+      <c r="F248" t="s">
+        <v>332</v>
+      </c>
+      <c r="G248">
+        <v>6</v>
+      </c>
+      <c r="H248" t="s">
+        <v>248</v>
+      </c>
+      <c r="I248" s="7" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="249" customHeight="true" spans="1:1">
@@ -10037,492 +10118,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C3" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="D3" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E3" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F3" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="H3" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="D4" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F4" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H4" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="I4" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="E5" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="H5" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="F6" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="G6" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H6" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="I6" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="F7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="E8" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F8" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="G8" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H8" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="E9" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F9" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="G9" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H9" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="I9" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E10" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F10" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="G10" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H10" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E11" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F11" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="H11" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E12" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F12" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G12" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="H12" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="F13" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="H13" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="F14" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="G14" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="H14" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E15" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F15" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="H15" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F16" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="G16" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="H16" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E17" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F17" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="H17" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="E18" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F18" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="H18" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="I18" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="E19" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F19" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="G19" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="H19" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="F20" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="H20" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="F21" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="G21" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="H21" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="E22" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F22" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="H22" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="E23" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F23" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="G23" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H23" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E24" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F24" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="H24" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="E25" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F25" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="H25" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="E26" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F26" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="G26" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="H26" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="E27" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F27" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="G27" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="H27" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="F28" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="H28" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="E29" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F29" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="H29" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E30" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F30" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="H30" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="E31" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F31" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="H31" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="E32" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F32" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="H32" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E33" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F33" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="G33" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17850"/>
+    <workbookView windowWidth="27720" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="451">
   <si>
     <t>训练统计</t>
   </si>
@@ -1017,6 +1017,18 @@
   </si>
   <si>
     <t>卧推的感觉也不是很好，比上次累；动作质量不是很好；这次感觉肩膀有些不适了；原因：1.落点不稳定，在一组中，落点会变化；2.夹肘也不是很自然，不像老师说的，下落时略夹肘，推起时肘打开，肘关节与杠铃杆在一个平面内；下次一定注意！</t>
+  </si>
+  <si>
+    <t>2021.1.30</t>
+  </si>
+  <si>
+    <t>重量太重的时候，次数不要超过4次，次数多了后面的动作质量不能保证就没有意义了；</t>
+  </si>
+  <si>
+    <t>68989 11</t>
+  </si>
+  <si>
+    <t>在推起到顶端这个时候，保持中立位，手肘打开的角度要开一些；用目标肌去发力</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1383,9 +1395,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1413,23 +1425,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1443,19 +1441,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1475,8 +1486,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1484,6 +1496,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1497,11 +1532,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1514,39 +1548,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1566,18 +1578,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1590,7 +1590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,7 +1608,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1614,19 +1668,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1638,31 +1704,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,37 +1722,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1716,37 +1746,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1757,17 +1769,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1791,6 +1792,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1834,15 +1844,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1857,108 +1858,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -1967,16 +1979,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1985,29 +1997,29 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2028,9 +2040,6 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2353,8 +2362,8 @@
   <sheetPr/>
   <dimension ref="A1:L618"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B228" workbookViewId="0">
-      <selection activeCell="D248" sqref="D248"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="B251" sqref="B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -7511,6 +7520,9 @@
         <f t="shared" si="22"/>
         <v>230</v>
       </c>
+      <c r="B233">
+        <v>64</v>
+      </c>
       <c r="C233" t="s">
         <v>313</v>
       </c>
@@ -7559,6 +7571,9 @@
         <f t="shared" si="22"/>
         <v>232</v>
       </c>
+      <c r="B235">
+        <v>65</v>
+      </c>
       <c r="C235" t="s">
         <v>315</v>
       </c>
@@ -7649,6 +7664,9 @@
         <f t="shared" si="23"/>
         <v>236</v>
       </c>
+      <c r="B239">
+        <v>66</v>
+      </c>
       <c r="C239" t="s">
         <v>319</v>
       </c>
@@ -7715,6 +7733,9 @@
         <f t="shared" si="23"/>
         <v>239</v>
       </c>
+      <c r="B242">
+        <v>67</v>
+      </c>
       <c r="C242" t="s">
         <v>323</v>
       </c>
@@ -7796,6 +7817,9 @@
         <f t="shared" si="23"/>
         <v>243</v>
       </c>
+      <c r="B246">
+        <v>68</v>
+      </c>
       <c r="C246" t="s">
         <v>327</v>
       </c>
@@ -7862,32 +7886,98 @@
       <c r="H248" t="s">
         <v>248</v>
       </c>
-      <c r="I248" s="7" t="s">
+      <c r="I248" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="249" customHeight="true" spans="1:1">
+    <row r="249" customHeight="true" spans="1:8">
       <c r="A249">
         <f t="shared" si="24"/>
         <v>246</v>
       </c>
-    </row>
-    <row r="250" customHeight="true" spans="1:1">
+      <c r="B249">
+        <v>69</v>
+      </c>
+      <c r="C249" t="s">
+        <v>334</v>
+      </c>
+      <c r="D249" t="s">
+        <v>12</v>
+      </c>
+      <c r="E249">
+        <v>60</v>
+      </c>
+      <c r="F249">
+        <v>666667</v>
+      </c>
+      <c r="G249">
+        <v>6</v>
+      </c>
+      <c r="H249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" customHeight="true" spans="1:9">
       <c r="A250">
         <f t="shared" si="24"/>
         <v>247</v>
       </c>
-    </row>
-    <row r="251" customHeight="true" spans="1:1">
+      <c r="D250" t="s">
+        <v>160</v>
+      </c>
+      <c r="E250">
+        <v>70</v>
+      </c>
+      <c r="F250" t="s">
+        <v>311</v>
+      </c>
+      <c r="G250">
+        <v>2</v>
+      </c>
+      <c r="H250">
+        <v>4</v>
+      </c>
+      <c r="I250" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="251" customHeight="true" spans="1:9">
       <c r="A251">
         <f t="shared" si="24"/>
         <v>248</v>
       </c>
-    </row>
-    <row r="252" customHeight="true" spans="1:1">
+      <c r="D251" t="s">
+        <v>17</v>
+      </c>
+      <c r="E251">
+        <v>60</v>
+      </c>
+      <c r="F251" t="s">
+        <v>336</v>
+      </c>
+      <c r="G251">
+        <v>6</v>
+      </c>
+      <c r="H251" t="s">
+        <v>248</v>
+      </c>
+      <c r="I251" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="252" customHeight="true" spans="1:7">
       <c r="A252">
         <f t="shared" si="24"/>
         <v>249</v>
+      </c>
+      <c r="D252" t="s">
+        <v>18</v>
+      </c>
+      <c r="F252">
+        <v>886886</v>
+      </c>
+      <c r="G252">
+        <v>6</v>
       </c>
     </row>
     <row r="253" customHeight="true" spans="1:1">
@@ -10118,492 +10208,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F4" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I4" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E5" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H5" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F6" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G6" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H6" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I6" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F8" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H8" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E9" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F9" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G9" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H9" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="I9" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E10" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F10" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H10" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E11" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F11" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E12" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F12" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G12" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H12" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F13" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H13" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F14" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G14" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H14" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E15" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F15" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H15" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E16" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F16" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G16" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H16" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E17" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F17" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H17" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E18" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F18" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H18" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="I18" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E19" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F19" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="G19" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H19" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F20" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H20" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F21" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G21" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H21" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E22" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F22" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H22" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E23" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F23" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G23" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H23" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E24" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F24" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H24" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E25" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F25" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H25" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E26" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F26" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G26" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H26" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E27" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F27" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="G27" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H27" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F28" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H28" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E29" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F29" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H29" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E30" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F30" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H30" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E31" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F31" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H31" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E32" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F32" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H32" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="E33" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F33" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G33" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12450"/>
+    <workbookView windowWidth="20730" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="456">
   <si>
     <t>训练统计</t>
   </si>
@@ -1029,6 +1029,21 @@
   </si>
   <si>
     <t>在推起到顶端这个时候，保持中立位，手肘打开的角度要开一些；用目标肌去发力</t>
+  </si>
+  <si>
+    <t>2020.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 80 90 </t>
+  </si>
+  <si>
+    <t>5 3 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65 70 75 </t>
+  </si>
+  <si>
+    <t>222227  1  1</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1395,9 +1410,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1433,19 +1448,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1456,17 +1470,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1486,14 +1494,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -1502,7 +1502,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1516,6 +1516,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1524,31 +1531,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1563,7 +1564,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1578,7 +1593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,7 +1605,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,31 +1629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,13 +1653,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1668,97 +1761,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1769,39 +1784,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1869,117 +1851,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1988,28 +2003,28 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2362,8 +2377,8 @@
   <sheetPr/>
   <dimension ref="A1:L618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="B251" sqref="B251"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="F257" sqref="F257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -7980,22 +7995,70 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" customHeight="true" spans="1:1">
+    <row r="253" customHeight="true" spans="1:8">
       <c r="A253">
         <f t="shared" si="24"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="254" customHeight="true" spans="1:1">
+      <c r="B253">
+        <v>70</v>
+      </c>
+      <c r="C253" t="s">
+        <v>338</v>
+      </c>
+      <c r="D253" t="s">
+        <v>12</v>
+      </c>
+      <c r="E253">
+        <v>70</v>
+      </c>
+      <c r="F253">
+        <v>222222</v>
+      </c>
+      <c r="G253">
+        <v>6</v>
+      </c>
+      <c r="H253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" customHeight="true" spans="1:7">
       <c r="A254">
         <f t="shared" si="24"/>
         <v>251</v>
       </c>
-    </row>
-    <row r="255" customHeight="true" spans="1:1">
+      <c r="D254" t="s">
+        <v>160</v>
+      </c>
+      <c r="E254" t="s">
+        <v>339</v>
+      </c>
+      <c r="F254" t="s">
+        <v>340</v>
+      </c>
+      <c r="G254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" customHeight="true" spans="1:8">
       <c r="A255">
         <f t="shared" si="24"/>
         <v>252</v>
+      </c>
+      <c r="D255" t="s">
+        <v>17</v>
+      </c>
+      <c r="E255" t="s">
+        <v>341</v>
+      </c>
+      <c r="F255" t="s">
+        <v>342</v>
+      </c>
+      <c r="G255">
+        <v>6</v>
+      </c>
+      <c r="H255">
+        <v>3</v>
       </c>
     </row>
     <row r="256" customHeight="true" spans="1:1">
@@ -10208,492 +10271,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="E3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H3" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F4" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H4" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="I4" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E5" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F5" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H5" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F6" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G6" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="H6" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="I6" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="G7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="H7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E8" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F8" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="G8" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="H8" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="E9" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F9" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G9" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="H9" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="I9" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E10" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F10" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G10" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="H10" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E11" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F11" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H11" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E12" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F12" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G12" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H12" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F13" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H13" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F14" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G14" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="H14" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E15" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F15" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H15" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
+        <v>394</v>
+      </c>
+      <c r="E16" t="s">
+        <v>344</v>
+      </c>
+      <c r="F16" t="s">
+        <v>395</v>
+      </c>
+      <c r="G16" t="s">
         <v>389</v>
       </c>
-      <c r="E16" t="s">
-        <v>339</v>
-      </c>
-      <c r="F16" t="s">
-        <v>390</v>
-      </c>
-      <c r="G16" t="s">
-        <v>384</v>
-      </c>
       <c r="H16" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="E17" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F17" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H17" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E18" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F18" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H18" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="I18" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="E19" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F19" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G19" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H19" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F20" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H20" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
+        <v>412</v>
+      </c>
+      <c r="F21" t="s">
+        <v>413</v>
+      </c>
+      <c r="G21" t="s">
         <v>407</v>
       </c>
-      <c r="F21" t="s">
-        <v>408</v>
-      </c>
-      <c r="G21" t="s">
-        <v>402</v>
-      </c>
       <c r="H21" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="E22" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F22" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="H22" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="E23" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F23" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="G23" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="H23" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="E24" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F24" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="H24" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="E25" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F25" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="H25" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="E26" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F26" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="G26" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="H26" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="E27" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F27" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="G27" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="H27" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="F28" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="H28" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="E29" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F29" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="H29" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="E30" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F30" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="H30" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="E31" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F31" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="H31" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="E32" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F32" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="H32" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="E33" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F33" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="G33" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20730" windowHeight="8190"/>
+    <workbookView windowWidth="27720" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="459">
   <si>
     <t>训练统计</t>
   </si>
@@ -1044,6 +1044,15 @@
   </si>
   <si>
     <t>222227  1  1</t>
+  </si>
+  <si>
+    <t>2020.2.6</t>
+  </si>
+  <si>
+    <t>在底端一定要稳住</t>
+  </si>
+  <si>
+    <t>2 3</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1411,9 +1420,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1449,22 +1458,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1478,9 +1495,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1501,8 +1555,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1517,60 +1580,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1578,7 +1587,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1593,19 +1602,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1629,13 +1662,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1653,19 +1710,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1677,43 +1734,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1731,49 +1770,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1791,7 +1800,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1826,6 +1850,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1843,35 +1878,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1889,142 +1898,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2378,7 +2387,7 @@
   <dimension ref="A1:L618"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="F257" sqref="F257"/>
+      <selection activeCell="I258" sqref="I258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -2391,7 +2400,7 @@
     <col min="6" max="6" width="17.8866666666667" customWidth="true"/>
     <col min="7" max="7" width="11.14" customWidth="true"/>
     <col min="8" max="8" width="21.2866666666667" customWidth="true"/>
-    <col min="9" max="9" width="90.9533333333333" customWidth="true"/>
+    <col min="9" max="9" width="78.5" customWidth="true"/>
     <col min="10" max="10" width="12.78" customWidth="true"/>
     <col min="11" max="16384" width="11.14" customWidth="true"/>
   </cols>
@@ -8061,22 +8070,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" customHeight="true" spans="1:1">
+    <row r="256" customHeight="true" spans="1:9">
       <c r="A256">
         <f t="shared" si="24"/>
         <v>253</v>
       </c>
-    </row>
-    <row r="257" customHeight="true" spans="1:1">
+      <c r="C256" t="s">
+        <v>343</v>
+      </c>
+      <c r="D256" t="s">
+        <v>12</v>
+      </c>
+      <c r="E256">
+        <v>70</v>
+      </c>
+      <c r="F256">
+        <v>222223</v>
+      </c>
+      <c r="G256">
+        <v>6</v>
+      </c>
+      <c r="H256">
+        <v>3</v>
+      </c>
+      <c r="I256" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="257" customHeight="true" spans="1:7">
       <c r="A257">
         <f t="shared" si="24"/>
         <v>254</v>
       </c>
-    </row>
-    <row r="258" customHeight="true" spans="1:1">
+      <c r="D257" t="s">
+        <v>160</v>
+      </c>
+      <c r="E257">
+        <v>80</v>
+      </c>
+      <c r="F257" t="s">
+        <v>345</v>
+      </c>
+      <c r="G257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" customHeight="true" spans="1:8">
       <c r="A258">
         <f t="shared" ref="A258:A267" si="25">ROW()-3</f>
         <v>255</v>
+      </c>
+      <c r="D258" t="s">
+        <v>17</v>
+      </c>
+      <c r="E258">
+        <v>65</v>
+      </c>
+      <c r="F258">
+        <v>222238</v>
+      </c>
+      <c r="G258">
+        <v>6</v>
+      </c>
+      <c r="H258">
+        <v>3</v>
       </c>
     </row>
     <row r="259" customHeight="true" spans="1:1">
@@ -10271,492 +10328,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F5" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H5" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F6" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G6" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H6" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="I6" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E8" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F8" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G8" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H8" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E9" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F9" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G9" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H9" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="I9" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E10" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F10" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G10" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H10" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E11" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F11" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H11" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E12" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F12" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G12" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H12" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F13" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H13" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F14" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G14" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H14" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E15" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F15" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H15" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E16" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F16" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G16" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H16" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E17" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F17" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H17" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E18" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F18" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H18" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I18" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E19" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F19" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G19" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H19" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F20" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H20" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F21" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G21" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H21" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E22" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F22" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H22" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E23" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F23" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G23" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H23" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E24" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F24" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H24" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E25" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F25" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H25" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E26" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F26" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="G26" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="H26" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E27" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F27" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G27" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H27" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F28" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H28" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E29" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F29" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H29" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E30" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F30" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H30" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E31" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F31" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H31" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E32" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F32" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="H32" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E33" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F33" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G33" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12450"/>
+    <workbookView windowWidth="27795" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="460">
   <si>
     <t>训练统计</t>
   </si>
@@ -1053,6 +1053,9 @@
   </si>
   <si>
     <t>2 3</t>
+  </si>
+  <si>
+    <t>2020.2.9</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1419,10 +1422,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1458,7 +1461,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1471,17 +1482,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1495,69 +1513,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1579,6 +1536,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1586,8 +1574,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1599,6 +1602,144 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1614,7 +1755,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,163 +1779,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1793,15 +1796,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1820,6 +1814,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1831,32 +1834,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1878,6 +1855,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1893,147 +1881,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2387,7 +2390,7 @@
   <dimension ref="A1:L618"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="I258" sqref="I258"/>
+      <selection activeCell="G261" sqref="G261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -8136,16 +8139,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" customHeight="true" spans="1:1">
+    <row r="259" customHeight="true" spans="1:8">
       <c r="A259">
         <f t="shared" si="25"/>
         <v>256</v>
       </c>
-    </row>
-    <row r="260" customHeight="true" spans="1:1">
+      <c r="C259" t="s">
+        <v>346</v>
+      </c>
+      <c r="D259" t="s">
+        <v>12</v>
+      </c>
+      <c r="E259">
+        <v>70</v>
+      </c>
+      <c r="F259">
+        <v>222234</v>
+      </c>
+      <c r="G259">
+        <v>6</v>
+      </c>
+      <c r="H259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" customHeight="true" spans="1:8">
       <c r="A260">
         <f t="shared" si="25"/>
         <v>257</v>
+      </c>
+      <c r="D260" t="s">
+        <v>17</v>
+      </c>
+      <c r="E260">
+        <v>65</v>
+      </c>
+      <c r="F260">
+        <v>222338</v>
+      </c>
+      <c r="G260">
+        <v>6</v>
+      </c>
+      <c r="H260" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="261" customHeight="true" spans="1:1">
@@ -10328,492 +10364,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" t="s">
         <v>348</v>
       </c>
-      <c r="E3" t="s">
-        <v>347</v>
-      </c>
       <c r="F3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G12" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H12" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F16" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E17" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F17" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H17" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E18" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H18" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I18" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E19" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F19" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G19" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H19" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H20" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F21" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G21" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H21" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E22" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F22" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H22" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E23" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F23" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G23" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H23" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F24" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H24" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E25" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F25" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H25" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E26" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F26" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G26" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H26" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F27" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F28" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H28" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E29" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F29" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H29" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E30" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F30" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H30" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E31" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H31" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E32" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F32" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H32" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E33" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F33" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G33" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12450"/>
+    <workbookView windowWidth="27735" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="461">
   <si>
     <t>训练统计</t>
   </si>
@@ -1056,6 +1056,9 @@
   </si>
   <si>
     <t>2020.2.9</t>
+  </si>
+  <si>
+    <t>2020.2.16</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1422,10 +1425,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1460,16 +1463,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1477,6 +1473,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1497,11 +1500,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1513,6 +1516,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -1520,9 +1531,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1544,16 +1554,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1567,13 +1576,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1582,15 +1584,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1605,7 +1608,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1617,7 +1710,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1629,163 +1782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1796,30 +1799,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1834,6 +1813,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1864,11 +1876,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1881,129 +1899,114 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -2012,7 +2015,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2021,22 +2024,22 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2390,7 +2393,7 @@
   <dimension ref="A1:L618"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="G261" sqref="G261"/>
+      <selection activeCell="I263" sqref="I263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -8078,6 +8081,9 @@
         <f t="shared" si="24"/>
         <v>253</v>
       </c>
+      <c r="B256">
+        <v>71</v>
+      </c>
       <c r="C256" t="s">
         <v>343</v>
       </c>
@@ -8144,6 +8150,9 @@
         <f t="shared" si="25"/>
         <v>256</v>
       </c>
+      <c r="B259">
+        <v>72</v>
+      </c>
       <c r="C259" t="s">
         <v>346</v>
       </c>
@@ -8184,22 +8193,70 @@
         <v>248</v>
       </c>
     </row>
-    <row r="261" customHeight="true" spans="1:1">
+    <row r="261" customHeight="true" spans="1:8">
       <c r="A261">
         <f t="shared" si="25"/>
         <v>258</v>
       </c>
-    </row>
-    <row r="262" customHeight="true" spans="1:1">
+      <c r="C261" t="s">
+        <v>347</v>
+      </c>
+      <c r="D261" t="s">
+        <v>12</v>
+      </c>
+      <c r="E261">
+        <v>70</v>
+      </c>
+      <c r="F261">
+        <v>223345</v>
+      </c>
+      <c r="G261">
+        <v>6</v>
+      </c>
+      <c r="H261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" customHeight="true" spans="1:8">
       <c r="A262">
         <f t="shared" si="25"/>
         <v>259</v>
       </c>
-    </row>
-    <row r="263" customHeight="true" spans="1:1">
+      <c r="D262" t="s">
+        <v>160</v>
+      </c>
+      <c r="E262">
+        <v>70</v>
+      </c>
+      <c r="F262">
+        <v>345</v>
+      </c>
+      <c r="G262">
+        <v>3</v>
+      </c>
+      <c r="H262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" customHeight="true" spans="1:8">
       <c r="A263">
         <f t="shared" si="25"/>
         <v>260</v>
+      </c>
+      <c r="D263" t="s">
+        <v>17</v>
+      </c>
+      <c r="E263">
+        <v>65</v>
+      </c>
+      <c r="F263">
+        <v>233447</v>
+      </c>
+      <c r="G263">
+        <v>6</v>
+      </c>
+      <c r="H263">
+        <v>4</v>
       </c>
     </row>
     <row r="264" customHeight="true" spans="1:1">
@@ -10364,492 +10421,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" t="s">
         <v>349</v>
       </c>
-      <c r="E3" t="s">
-        <v>348</v>
-      </c>
       <c r="F3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F12" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G12" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E16" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G16" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H16" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F17" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E18" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F18" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H18" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I18" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F19" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G19" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H19" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F20" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H20" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F21" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G21" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H21" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E22" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F22" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H22" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F23" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G23" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H23" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E24" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F24" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H24" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E25" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F25" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H25" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E26" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F26" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G26" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H26" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E27" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H27" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F28" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H28" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E29" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F29" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H29" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E30" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F30" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H30" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E31" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F31" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H31" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E32" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F32" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H32" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E33" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F33" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G33" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27735" windowHeight="12150"/>
+    <workbookView windowWidth="27795" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="464">
   <si>
     <t>训练统计</t>
   </si>
@@ -1059,6 +1059,15 @@
   </si>
   <si>
     <t>2020.2.16</t>
+  </si>
+  <si>
+    <t>2020.2.20</t>
+  </si>
+  <si>
+    <t>2~4</t>
+  </si>
+  <si>
+    <t>2020.2.23</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1425,10 +1434,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1463,9 +1472,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1473,59 +1481,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1540,9 +1495,48 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1554,8 +1548,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1576,9 +1571,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1586,7 +1580,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1594,6 +1595,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1608,13 +1617,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1632,37 +1719,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,85 +1743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1770,13 +1767,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1788,7 +1779,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1817,11 +1826,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1850,17 +1865,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1876,16 +1885,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1904,139 +1913,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2392,8 +2401,8 @@
   <sheetPr/>
   <dimension ref="A1:L618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="I263" sqref="I263"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="D270" sqref="D270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -8198,6 +8207,9 @@
         <f t="shared" si="25"/>
         <v>258</v>
       </c>
+      <c r="B261">
+        <v>73</v>
+      </c>
       <c r="C261" t="s">
         <v>347</v>
       </c>
@@ -8259,40 +8271,136 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" customHeight="true" spans="1:1">
+    <row r="264" customHeight="true" spans="1:8">
       <c r="A264">
         <f t="shared" si="25"/>
         <v>261</v>
       </c>
-    </row>
-    <row r="265" customHeight="true" spans="1:1">
+      <c r="C264" t="s">
+        <v>348</v>
+      </c>
+      <c r="D264" t="s">
+        <v>12</v>
+      </c>
+      <c r="E264">
+        <v>70</v>
+      </c>
+      <c r="F264">
+        <v>223457</v>
+      </c>
+      <c r="G264">
+        <v>6</v>
+      </c>
+      <c r="H264" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="265" customHeight="true" spans="1:8">
       <c r="A265">
         <f t="shared" si="25"/>
         <v>262</v>
       </c>
-    </row>
-    <row r="266" customHeight="true" spans="1:1">
+      <c r="D265" t="s">
+        <v>160</v>
+      </c>
+      <c r="E265">
+        <v>70</v>
+      </c>
+      <c r="F265">
+        <v>66</v>
+      </c>
+      <c r="G265">
+        <v>2</v>
+      </c>
+      <c r="H265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" customHeight="true" spans="1:8">
       <c r="A266">
         <f t="shared" si="25"/>
         <v>263</v>
       </c>
-    </row>
-    <row r="267" customHeight="true" spans="1:1">
+      <c r="D266" t="s">
+        <v>17</v>
+      </c>
+      <c r="E266">
+        <v>65</v>
+      </c>
+      <c r="F266">
+        <v>233458</v>
+      </c>
+      <c r="G266">
+        <v>6</v>
+      </c>
+      <c r="H266" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="267" customHeight="true" spans="1:8">
       <c r="A267">
         <f t="shared" si="25"/>
         <v>264</v>
       </c>
-    </row>
-    <row r="268" customHeight="true" spans="1:1">
+      <c r="C267" t="s">
+        <v>350</v>
+      </c>
+      <c r="D267" t="s">
+        <v>12</v>
+      </c>
+      <c r="E267">
+        <v>70</v>
+      </c>
+      <c r="F267">
+        <v>234666</v>
+      </c>
+      <c r="G267">
+        <v>6</v>
+      </c>
+      <c r="H267" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="268" customHeight="true" spans="1:8">
       <c r="A268">
         <f t="shared" ref="A268:A277" si="26">ROW()-3</f>
         <v>265</v>
       </c>
-    </row>
-    <row r="269" customHeight="true" spans="1:1">
+      <c r="D268" t="s">
+        <v>160</v>
+      </c>
+      <c r="E268">
+        <v>80</v>
+      </c>
+      <c r="F268">
+        <v>33</v>
+      </c>
+      <c r="G268">
+        <v>2</v>
+      </c>
+      <c r="H268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" customHeight="true" spans="1:8">
       <c r="A269">
         <f t="shared" si="26"/>
         <v>266</v>
+      </c>
+      <c r="D269" t="s">
+        <v>17</v>
+      </c>
+      <c r="E269">
+        <v>65</v>
+      </c>
+      <c r="F269">
+        <v>234458</v>
+      </c>
+      <c r="G269">
+        <v>6</v>
+      </c>
+      <c r="H269" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="270" customHeight="true" spans="1:1">
@@ -10421,492 +10529,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="I4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F5" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H5" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F6" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G6" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H6" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="I6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E8" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F8" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G8" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H8" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F9" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H9" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I9" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E10" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G10" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H10" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E11" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F11" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H11" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E12" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F12" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G12" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H12" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F13" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H13" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F14" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G14" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H14" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E15" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F15" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H15" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E16" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F16" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G16" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H16" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E17" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F17" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H17" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E18" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F18" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H18" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="I18" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E19" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F19" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="G19" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H19" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F20" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H20" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F21" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G21" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H21" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E22" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F22" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="H22" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E23" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F23" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G23" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H23" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E24" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H24" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F25" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H25" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E26" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F26" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="G26" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H26" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E27" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F27" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="G27" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="H27" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F28" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H28" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E29" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F29" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H29" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E30" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F30" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H30" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E31" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F31" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H31" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F32" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H32" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E33" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F33" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="G33" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="469">
   <si>
     <t>训练统计</t>
   </si>
@@ -1068,6 +1068,21 @@
   </si>
   <si>
     <t>2020.2.23</t>
+  </si>
+  <si>
+    <t>2020.2.27</t>
+  </si>
+  <si>
+    <t>在底端稳住，就是让股四头肌发力更充分；</t>
+  </si>
+  <si>
+    <t>3 5</t>
+  </si>
+  <si>
+    <t>2~5</t>
+  </si>
+  <si>
+    <t>肩部训练 + 器械夹胸 +肱三头肌训练</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1434,10 +1449,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1464,16 +1479,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1486,18 +1494,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1516,33 +1517,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1556,43 +1532,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1607,6 +1547,81 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1617,61 +1632,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1689,13 +1668,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1707,13 +1728,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1731,19 +1758,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1755,19 +1800,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1779,25 +1812,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1808,21 +1823,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1845,7 +1845,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1867,8 +1891,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1876,11 +1902,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1899,162 +1923,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2401,8 +2416,8 @@
   <sheetPr/>
   <dimension ref="A1:L618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="D270" sqref="D270"/>
+    <sheetView tabSelected="1" topLeftCell="C263" workbookViewId="0">
+      <selection activeCell="D276" sqref="D276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -8403,28 +8418,82 @@
         <v>349</v>
       </c>
     </row>
-    <row r="270" customHeight="true" spans="1:1">
+    <row r="270" customHeight="true" spans="1:9">
       <c r="A270">
         <f t="shared" si="26"/>
         <v>267</v>
       </c>
-    </row>
-    <row r="271" customHeight="true" spans="1:1">
+      <c r="C270" t="s">
+        <v>351</v>
+      </c>
+      <c r="D270" t="s">
+        <v>12</v>
+      </c>
+      <c r="E270">
+        <v>70</v>
+      </c>
+      <c r="F270">
+        <v>235666</v>
+      </c>
+      <c r="G270">
+        <v>6</v>
+      </c>
+      <c r="H270" t="s">
+        <v>349</v>
+      </c>
+      <c r="I270" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="271" customHeight="true" spans="1:8">
       <c r="A271">
         <f t="shared" si="26"/>
         <v>268</v>
       </c>
-    </row>
-    <row r="272" customHeight="true" spans="1:1">
+      <c r="D271" t="s">
+        <v>160</v>
+      </c>
+      <c r="E271">
+        <v>70</v>
+      </c>
+      <c r="F271" t="s">
+        <v>353</v>
+      </c>
+      <c r="G271">
+        <v>2</v>
+      </c>
+      <c r="H271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" customHeight="true" spans="1:8">
       <c r="A272">
         <f t="shared" si="26"/>
         <v>269</v>
       </c>
-    </row>
-    <row r="273" customHeight="true" spans="1:1">
+      <c r="D272" t="s">
+        <v>17</v>
+      </c>
+      <c r="E272">
+        <v>65</v>
+      </c>
+      <c r="F272">
+        <v>234568</v>
+      </c>
+      <c r="G272">
+        <v>6</v>
+      </c>
+      <c r="H272" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="273" customHeight="true" spans="1:4">
       <c r="A273">
         <f t="shared" si="26"/>
         <v>270</v>
+      </c>
+      <c r="D273" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="274" customHeight="true" spans="1:1">
@@ -10529,492 +10598,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C3" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D3" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E3" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F3" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H3" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D4" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F4" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="H4" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="I4" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="E5" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F5" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="H5" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G6" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="H6" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="I6" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E8" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F8" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="G8" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="H8" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E9" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F9" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="G9" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="H9" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="I9" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E10" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F10" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="G10" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H10" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E11" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F11" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="H11" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E12" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F12" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="G12" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H12" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="F13" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H13" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="F14" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="G14" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H14" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="E15" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F15" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H15" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
+        <v>407</v>
+      </c>
+      <c r="E16" t="s">
+        <v>357</v>
+      </c>
+      <c r="F16" t="s">
+        <v>408</v>
+      </c>
+      <c r="G16" t="s">
         <v>402</v>
       </c>
-      <c r="E16" t="s">
-        <v>352</v>
-      </c>
-      <c r="F16" t="s">
-        <v>403</v>
-      </c>
-      <c r="G16" t="s">
-        <v>397</v>
-      </c>
       <c r="H16" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E17" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F17" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="H17" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E18" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F18" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="H18" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="I18" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="E19" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F19" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="G19" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="H19" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F20" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="H20" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
+        <v>425</v>
+      </c>
+      <c r="F21" t="s">
+        <v>426</v>
+      </c>
+      <c r="G21" t="s">
         <v>420</v>
       </c>
-      <c r="F21" t="s">
-        <v>421</v>
-      </c>
-      <c r="G21" t="s">
-        <v>415</v>
-      </c>
       <c r="H21" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="E22" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F22" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="H22" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="E23" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F23" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="G23" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="H23" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="E24" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F24" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="H24" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="E25" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F25" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="H25" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="E26" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F26" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="G26" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="H26" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E27" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F27" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="G27" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="H27" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="F28" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="H28" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="E29" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F29" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="H29" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="E30" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F30" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="H30" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E31" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F31" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="H31" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="E32" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F32" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="H32" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="E33" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F33" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="G33" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>

--- a/ReadandFitness/Fitness_record.xlsx
+++ b/ReadandFitness/Fitness_record.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="478">
   <si>
     <t>训练统计</t>
   </si>
@@ -1083,6 +1083,33 @@
   </si>
   <si>
     <t>肩部训练 + 器械夹胸 +肱三头肌训练</t>
+  </si>
+  <si>
+    <t>2020.3.3</t>
+  </si>
+  <si>
+    <t>每面2.5</t>
+  </si>
+  <si>
+    <t>颈前颈后各5~7次</t>
+  </si>
+  <si>
+    <t>哑铃组合动作（2个）</t>
+  </si>
+  <si>
+    <t>这次主要就随便一练</t>
+  </si>
+  <si>
+    <t>2020.3.6</t>
+  </si>
+  <si>
+    <t>这次底端不是很稳，所以动作有点变形</t>
+  </si>
+  <si>
+    <t>感觉做卧推最后一组的时候，心态有点问题，导致节奏有点乱</t>
+  </si>
+  <si>
+    <t>肩部+哑铃组合动作（2个）</t>
   </si>
   <si>
     <t>6月29</t>
@@ -1450,9 +1477,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1479,16 +1506,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1510,7 +1538,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1518,7 +1546,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1532,7 +1567,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1548,76 +1642,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1638,7 +1665,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,25 +1713,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1680,37 +1731,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1728,25 +1773,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1758,13 +1785,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1776,43 +1827,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1853,8 +1880,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1903,8 +1930,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1928,121 +1955,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2051,7 +2078,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -2060,16 +2087,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2416,8 +2443,8 @@
   <sheetPr/>
   <dimension ref="A1:L618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C263" workbookViewId="0">
-      <selection activeCell="D276" sqref="D276"/>
+    <sheetView tabSelected="1" topLeftCell="C269" workbookViewId="0">
+      <selection activeCell="D285" sqref="D285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.14" defaultRowHeight="25" customHeight="true"/>
@@ -8496,52 +8523,163 @@
         <v>355</v>
       </c>
     </row>
-    <row r="274" customHeight="true" spans="1:1">
+    <row r="274" customHeight="true" spans="1:8">
       <c r="A274">
         <f t="shared" si="26"/>
         <v>271</v>
       </c>
-    </row>
-    <row r="275" customHeight="true" spans="1:1">
+      <c r="C274" t="s">
+        <v>356</v>
+      </c>
+      <c r="D274" t="s">
+        <v>23</v>
+      </c>
+      <c r="E274" t="s">
+        <v>357</v>
+      </c>
+      <c r="F274">
+        <v>6</v>
+      </c>
+      <c r="G274">
+        <v>6</v>
+      </c>
+      <c r="H274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" customHeight="true" spans="1:7">
       <c r="A275">
         <f t="shared" si="26"/>
         <v>272</v>
       </c>
-    </row>
-    <row r="276" customHeight="true" spans="1:1">
+      <c r="D275" t="s">
+        <v>25</v>
+      </c>
+      <c r="E275" t="s">
+        <v>150</v>
+      </c>
+      <c r="F275" t="s">
+        <v>358</v>
+      </c>
+      <c r="G275">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" customHeight="true" spans="1:7">
       <c r="A276">
         <f t="shared" si="26"/>
         <v>273</v>
       </c>
-    </row>
-    <row r="277" customHeight="true" spans="1:1">
+      <c r="D276" t="s">
+        <v>17</v>
+      </c>
+      <c r="E276">
+        <v>65</v>
+      </c>
+      <c r="F276">
+        <v>23</v>
+      </c>
+      <c r="G276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" customHeight="true" spans="1:9">
       <c r="A277">
         <f t="shared" si="26"/>
         <v>274</v>
       </c>
-    </row>
-    <row r="278" customHeight="true" spans="1:1">
+      <c r="D277" t="s">
+        <v>359</v>
+      </c>
+      <c r="F277">
+        <v>10</v>
+      </c>
+      <c r="G277">
+        <v>2</v>
+      </c>
+      <c r="I277" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="278" customHeight="true" spans="1:9">
       <c r="A278">
         <f t="shared" ref="A278:A287" si="27">ROW()-3</f>
         <v>275</v>
       </c>
-    </row>
-    <row r="279" customHeight="true" spans="1:1">
+      <c r="C278" t="s">
+        <v>361</v>
+      </c>
+      <c r="D278" t="s">
+        <v>12</v>
+      </c>
+      <c r="E278">
+        <v>70</v>
+      </c>
+      <c r="F278">
+        <v>246666</v>
+      </c>
+      <c r="G278">
+        <v>6</v>
+      </c>
+      <c r="H278">
+        <v>3</v>
+      </c>
+      <c r="I278" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="279" customHeight="true" spans="1:8">
       <c r="A279">
         <f t="shared" si="27"/>
         <v>276</v>
       </c>
-    </row>
-    <row r="280" customHeight="true" spans="1:1">
+      <c r="D279" t="s">
+        <v>160</v>
+      </c>
+      <c r="E279">
+        <v>70</v>
+      </c>
+      <c r="F279">
+        <v>335</v>
+      </c>
+      <c r="G279">
+        <v>3</v>
+      </c>
+      <c r="H279" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="280" customHeight="true" spans="1:9">
       <c r="A280">
         <f t="shared" si="27"/>
         <v>277</v>
       </c>
-    </row>
-    <row r="281" customHeight="true" spans="1:1">
+      <c r="D280" t="s">
+        <v>17</v>
+      </c>
+      <c r="E280">
+        <v>65</v>
+      </c>
+      <c r="F280">
+        <v>235667</v>
+      </c>
+      <c r="G280">
+        <v>6</v>
+      </c>
+      <c r="H280" t="s">
+        <v>248</v>
+      </c>
+      <c r="I280" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="281" customHeight="true" spans="1:4">
       <c r="A281">
         <f t="shared" si="27"/>
         <v>278</v>
+      </c>
+      <c r="D281" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="282" customHeight="true" spans="1:1">
@@ -10598,492 +10736,492 @@
   <sheetData>
     <row r="3" customHeight="true" spans="2:8">
       <c r="B3" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D3" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="E3" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F3" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="H3" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="2:9">
       <c r="B4" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="D4" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="F4" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="H4" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="I4" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="4:8">
       <c r="D5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E5" t="s">
         <v>366</v>
       </c>
-      <c r="E5" t="s">
-        <v>357</v>
-      </c>
       <c r="F5" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="H5" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="4:9">
       <c r="D6" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="F6" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="G6" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H6" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="I6" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="4:8">
       <c r="D7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="F7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="G7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="H7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="4:8">
       <c r="D8" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="E8" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F8" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="G8" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H8" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="4:9">
       <c r="D9" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E9" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F9" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="G9" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H9" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="I9" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="4:8">
       <c r="D10" t="s">
+        <v>393</v>
+      </c>
+      <c r="E10" t="s">
+        <v>366</v>
+      </c>
+      <c r="F10" t="s">
+        <v>394</v>
+      </c>
+      <c r="G10" t="s">
         <v>384</v>
       </c>
-      <c r="E10" t="s">
-        <v>357</v>
-      </c>
-      <c r="F10" t="s">
-        <v>385</v>
-      </c>
-      <c r="G10" t="s">
-        <v>375</v>
-      </c>
       <c r="H10" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" spans="4:9">
       <c r="D11" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="E11" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F11" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="H11" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="4:9">
       <c r="D12" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="E12" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F12" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="G12" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="H12" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="true" spans="4:9">
       <c r="D13" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="F13" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="H13" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="4:8">
       <c r="D14" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F14" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="G14" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="H14" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="4:8">
       <c r="D15" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="E15" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F15" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="H15" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" ht="36" customHeight="true" spans="4:9">
       <c r="D16" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="E16" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F16" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="G16" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="H16" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" customHeight="true" spans="4:8">
       <c r="D17" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="E17" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F17" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="H17" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" customHeight="true" spans="4:9">
       <c r="D18" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="E18" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F18" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="H18" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="I18" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" customHeight="true" spans="4:8">
       <c r="D19" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="E19" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F19" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="G19" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="H19" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" customHeight="true" spans="4:8">
       <c r="D20" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="F20" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H20" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" customHeight="true" spans="4:8">
       <c r="D21" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="F21" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="G21" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="H21" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" customHeight="true" spans="4:8">
       <c r="D22" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="E22" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F22" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="H22" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" customHeight="true" spans="4:8">
       <c r="D23" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="E23" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F23" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="G23" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="H23" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" customHeight="true" spans="4:8">
       <c r="D24" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="E24" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F24" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="H24" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" customHeight="true" spans="4:8">
       <c r="D25" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="E25" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F25" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="H25" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" customHeight="true" spans="4:8">
       <c r="D26" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="E26" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F26" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="G26" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="H26" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" customHeight="true" spans="4:8">
       <c r="D27" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="E27" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F27" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="G27" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="H27" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" customHeight="true" spans="4:8">
       <c r="D28" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="F28" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H28" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" customHeight="true" spans="4:8">
       <c r="D29" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="E29" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F29" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="H29" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" customHeight="true" spans="4:8">
       <c r="D30" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="E30" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F30" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="H30" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" customHeight="true" spans="4:8">
       <c r="D31" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="E31" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F31" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="H31" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" customHeight="true" spans="4:8">
       <c r="D32" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="E32" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F32" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="H32" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
     </row>
     <row r="33" customHeight="true" spans="4:7">
       <c r="D33" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="E33" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F33" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="G33" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" customHeight="true" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
